--- a/data/covid19_Osaka.xlsx
+++ b/data/covid19_Osaka.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2192" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2902" uniqueCount="60">
   <si>
     <t>番号</t>
   </si>
@@ -191,9 +191,6 @@
     <t>四條畷市</t>
   </si>
   <si>
-    <t>高石市</t>
-  </si>
-  <si>
     <t>能勢町</t>
   </si>
   <si>
@@ -201,8 +198,14 @@
   </si>
   <si>
     <t>大阪府における新型コロナウイルス感染症患者の発生状況
-（令和2年4月8日現在）</t>
+（令和2年4月10日現在）</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>泉南市</t>
+  </si>
+  <si>
+    <t>富田林市</t>
   </si>
 </sst>
 </file>
@@ -212,7 +215,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,6 +241,13 @@
     </font>
     <font>
       <sz val="10.5"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
       <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
@@ -298,7 +308,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -340,6 +350,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -622,7 +638,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I526"/>
+  <dimension ref="A1:I698"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:H1"/>
@@ -640,7 +656,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -1164,10 +1180,10 @@
         <v>43884</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.4">
@@ -1892,10 +1908,10 @@
         <v>31</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.4">
@@ -3582,10 +3598,10 @@
         <v>43905</v>
       </c>
       <c r="G114" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H114" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.4">
@@ -3972,10 +3988,10 @@
         <v>43909</v>
       </c>
       <c r="G129" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H129" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.4">
@@ -4232,10 +4248,10 @@
         <v>43909</v>
       </c>
       <c r="G139" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H139" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.4">
@@ -4388,10 +4404,10 @@
         <v>43905</v>
       </c>
       <c r="G145" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H145" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.4">
@@ -5402,10 +5418,10 @@
         <v>43913</v>
       </c>
       <c r="G184" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H184" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.4">
@@ -5454,10 +5470,10 @@
         <v>43899</v>
       </c>
       <c r="G186" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H186" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.4">
@@ -6988,10 +7004,10 @@
         <v>43915</v>
       </c>
       <c r="G245" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H245" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.4">
@@ -7014,7 +7030,7 @@
         <v>43920</v>
       </c>
       <c r="G246" s="5" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="H246" s="5" t="s">
         <v>14</v>
@@ -7846,10 +7862,10 @@
         <v>43913</v>
       </c>
       <c r="G278" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H278" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.4">
@@ -8366,10 +8382,10 @@
         <v>43916</v>
       </c>
       <c r="G298" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H298" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.4">
@@ -8603,7 +8619,7 @@
         <v>32</v>
       </c>
       <c r="H307" s="5" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.4">
@@ -9116,8 +9132,8 @@
       <c r="E327" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F327" s="7" t="s">
-        <v>40</v>
+      <c r="F327" s="7">
+        <v>43917</v>
       </c>
       <c r="G327" s="5" t="s">
         <v>34</v>
@@ -9513,7 +9529,7 @@
         <v>13</v>
       </c>
       <c r="H342" s="5" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.4">
@@ -9692,10 +9708,10 @@
         <v>43900</v>
       </c>
       <c r="G349" s="8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H349" s="8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="350" spans="1:8" x14ac:dyDescent="0.25">
@@ -9900,7 +9916,7 @@
         <v>43921</v>
       </c>
       <c r="G357" s="8" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="H357" s="8" t="s">
         <v>14</v>
@@ -10030,10 +10046,10 @@
         <v>40</v>
       </c>
       <c r="G362" s="8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H362" s="8" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.25">
@@ -10683,7 +10699,7 @@
         <v>13</v>
       </c>
       <c r="H387" s="8" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="388" spans="1:8" x14ac:dyDescent="0.25">
@@ -10856,7 +10872,7 @@
         <v>12</v>
       </c>
       <c r="E394" s="8" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="F394" s="10">
         <v>43921</v>
@@ -11040,8 +11056,8 @@
       <c r="E401" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F401" s="10" t="s">
-        <v>40</v>
+      <c r="F401" s="10">
+        <v>43918</v>
       </c>
       <c r="G401" s="8" t="s">
         <v>34</v>
@@ -11092,8 +11108,8 @@
       <c r="E403" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F403" s="10" t="s">
-        <v>40</v>
+      <c r="F403" s="10">
+        <v>43919</v>
       </c>
       <c r="G403" s="8" t="s">
         <v>34</v>
@@ -11307,7 +11323,7 @@
         <v>13</v>
       </c>
       <c r="H411" s="8" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="412" spans="1:8" x14ac:dyDescent="0.25">
@@ -11356,7 +11372,7 @@
         <v>43918</v>
       </c>
       <c r="G413" s="8" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="H413" s="8" t="s">
         <v>14</v>
@@ -11437,7 +11453,7 @@
         <v>13</v>
       </c>
       <c r="H416" s="8" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="417" spans="1:9" x14ac:dyDescent="0.25">
@@ -11489,7 +11505,7 @@
         <v>13</v>
       </c>
       <c r="H418" s="8" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="419" spans="1:9" x14ac:dyDescent="0.25">
@@ -11723,7 +11739,7 @@
         <v>13</v>
       </c>
       <c r="H427" s="8" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="428" spans="1:9" x14ac:dyDescent="0.25">
@@ -11932,7 +11948,7 @@
         <v>13</v>
       </c>
       <c r="H435" s="8" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="436" spans="1:8" x14ac:dyDescent="0.25">
@@ -11958,7 +11974,7 @@
         <v>13</v>
       </c>
       <c r="H436" s="8" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="437" spans="1:8" x14ac:dyDescent="0.25">
@@ -11984,7 +12000,7 @@
         <v>32</v>
       </c>
       <c r="H437" s="8" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="438" spans="1:8" x14ac:dyDescent="0.25">
@@ -12111,7 +12127,7 @@
         <v>43921</v>
       </c>
       <c r="G442" s="8" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="H442" s="8" t="s">
         <v>14</v>
@@ -12244,7 +12260,7 @@
         <v>13</v>
       </c>
       <c r="H447" s="8" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="448" spans="1:8" x14ac:dyDescent="0.25">
@@ -12296,7 +12312,7 @@
         <v>13</v>
       </c>
       <c r="H449" s="8" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="450" spans="1:8" x14ac:dyDescent="0.25">
@@ -12319,10 +12335,10 @@
         <v>43924</v>
       </c>
       <c r="G450" s="8" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="H450" s="8" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="451" spans="1:8" x14ac:dyDescent="0.25">
@@ -12374,7 +12390,7 @@
         <v>13</v>
       </c>
       <c r="H452" s="8" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="453" spans="1:8" x14ac:dyDescent="0.25">
@@ -12400,7 +12416,7 @@
         <v>13</v>
       </c>
       <c r="H453" s="8" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="454" spans="1:8" x14ac:dyDescent="0.25">
@@ -12452,7 +12468,7 @@
         <v>13</v>
       </c>
       <c r="H455" s="8" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="456" spans="1:8" x14ac:dyDescent="0.25">
@@ -12556,7 +12572,7 @@
         <v>32</v>
       </c>
       <c r="H459" s="8" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="460" spans="1:8" x14ac:dyDescent="0.25">
@@ -12634,7 +12650,7 @@
         <v>13</v>
       </c>
       <c r="H462" s="8" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="463" spans="1:8" x14ac:dyDescent="0.25">
@@ -12660,7 +12676,7 @@
         <v>13</v>
       </c>
       <c r="H463" s="8" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="464" spans="1:8" x14ac:dyDescent="0.25">
@@ -12816,7 +12832,7 @@
         <v>13</v>
       </c>
       <c r="H469" s="8" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="470" spans="1:8" x14ac:dyDescent="0.25">
@@ -12842,7 +12858,7 @@
         <v>13</v>
       </c>
       <c r="H470" s="8" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="471" spans="1:8" x14ac:dyDescent="0.25">
@@ -12946,7 +12962,7 @@
         <v>13</v>
       </c>
       <c r="H474" s="8" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="475" spans="1:8" x14ac:dyDescent="0.25">
@@ -13024,7 +13040,7 @@
         <v>13</v>
       </c>
       <c r="H477" s="8" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="478" spans="1:8" x14ac:dyDescent="0.25">
@@ -13310,7 +13326,7 @@
         <v>13</v>
       </c>
       <c r="H488" s="8" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="489" spans="1:8" x14ac:dyDescent="0.25">
@@ -13336,7 +13352,7 @@
         <v>13</v>
       </c>
       <c r="H489" s="8" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="490" spans="1:8" x14ac:dyDescent="0.25">
@@ -13388,7 +13404,7 @@
         <v>13</v>
       </c>
       <c r="H491" s="8" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="492" spans="1:8" x14ac:dyDescent="0.25">
@@ -13440,7 +13456,7 @@
         <v>13</v>
       </c>
       <c r="H493" s="8" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="494" spans="1:8" x14ac:dyDescent="0.25">
@@ -13457,7 +13473,7 @@
         <v>8</v>
       </c>
       <c r="E494" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F494" s="10">
         <v>43921</v>
@@ -13483,7 +13499,7 @@
         <v>12</v>
       </c>
       <c r="E495" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F495" s="10">
         <v>43925</v>
@@ -13518,7 +13534,7 @@
         <v>13</v>
       </c>
       <c r="H496" s="8" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="497" spans="1:8" x14ac:dyDescent="0.25">
@@ -14142,7 +14158,7 @@
         <v>13</v>
       </c>
       <c r="H520" s="8" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="521" spans="1:8" x14ac:dyDescent="0.25">
@@ -14220,7 +14236,7 @@
         <v>13</v>
       </c>
       <c r="H523" s="8" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="524" spans="1:8" x14ac:dyDescent="0.25">
@@ -14237,7 +14253,7 @@
         <v>12</v>
       </c>
       <c r="E524" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F524" s="10">
         <v>43920</v>
@@ -14298,6 +14314,4478 @@
         <v>13</v>
       </c>
       <c r="H526" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="527" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A527" s="14">
+        <v>525</v>
+      </c>
+      <c r="B527" s="15">
+        <v>43930</v>
+      </c>
+      <c r="C527" s="14">
+        <v>50</v>
+      </c>
+      <c r="D527" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E527" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F527" s="10">
+        <v>43929</v>
+      </c>
+      <c r="G527" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H527" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A528" s="14">
+        <v>526</v>
+      </c>
+      <c r="B528" s="9">
+        <v>43930</v>
+      </c>
+      <c r="C528" s="14">
+        <v>30</v>
+      </c>
+      <c r="D528" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E528" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F528" s="10">
+        <v>43923</v>
+      </c>
+      <c r="G528" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H528" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="529" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A529" s="14">
+        <v>527</v>
+      </c>
+      <c r="B529" s="9">
+        <v>43930</v>
+      </c>
+      <c r="C529" s="14">
+        <v>50</v>
+      </c>
+      <c r="D529" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E529" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F529" s="10">
+        <v>43923</v>
+      </c>
+      <c r="G529" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H529" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="530" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A530" s="14">
+        <v>528</v>
+      </c>
+      <c r="B530" s="9">
+        <v>43930</v>
+      </c>
+      <c r="C530" s="14">
+        <v>20</v>
+      </c>
+      <c r="D530" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E530" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F530" s="10">
+        <v>43926</v>
+      </c>
+      <c r="G530" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H530" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="531" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A531" s="14">
+        <v>529</v>
+      </c>
+      <c r="B531" s="9">
+        <v>43930</v>
+      </c>
+      <c r="C531" s="14">
+        <v>50</v>
+      </c>
+      <c r="D531" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E531" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F531" s="10">
+        <v>43927</v>
+      </c>
+      <c r="G531" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H531" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="532" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A532" s="14">
+        <v>530</v>
+      </c>
+      <c r="B532" s="9">
+        <v>43930</v>
+      </c>
+      <c r="C532" s="14">
+        <v>10</v>
+      </c>
+      <c r="D532" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E532" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F532" s="10">
+        <v>43925</v>
+      </c>
+      <c r="G532" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H532" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="533" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A533" s="14">
+        <v>531</v>
+      </c>
+      <c r="B533" s="9">
+        <v>43930</v>
+      </c>
+      <c r="C533" s="14">
+        <v>20</v>
+      </c>
+      <c r="D533" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E533" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F533" s="10">
+        <v>43925</v>
+      </c>
+      <c r="G533" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H533" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="534" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A534" s="14">
+        <v>532</v>
+      </c>
+      <c r="B534" s="9">
+        <v>43930</v>
+      </c>
+      <c r="C534" s="14">
+        <v>40</v>
+      </c>
+      <c r="D534" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E534" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F534" s="10">
+        <v>43916</v>
+      </c>
+      <c r="G534" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H534" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="535" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A535" s="14">
+        <v>533</v>
+      </c>
+      <c r="B535" s="9">
+        <v>43930</v>
+      </c>
+      <c r="C535" s="14">
+        <v>20</v>
+      </c>
+      <c r="D535" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E535" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F535" s="10">
+        <v>43923</v>
+      </c>
+      <c r="G535" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H535" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="536" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A536" s="14">
+        <v>534</v>
+      </c>
+      <c r="B536" s="9">
+        <v>43930</v>
+      </c>
+      <c r="C536" s="14">
+        <v>70</v>
+      </c>
+      <c r="D536" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E536" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F536" s="10">
+        <v>43925</v>
+      </c>
+      <c r="G536" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H536" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="537" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A537" s="14">
+        <v>535</v>
+      </c>
+      <c r="B537" s="9">
+        <v>43930</v>
+      </c>
+      <c r="C537" s="14">
+        <v>30</v>
+      </c>
+      <c r="D537" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E537" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F537" s="10">
+        <v>43918</v>
+      </c>
+      <c r="G537" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H537" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="538" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A538" s="14">
+        <v>536</v>
+      </c>
+      <c r="B538" s="9">
+        <v>43930</v>
+      </c>
+      <c r="C538" s="14">
+        <v>40</v>
+      </c>
+      <c r="D538" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E538" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F538" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G538" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H538" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="539" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A539" s="14">
+        <v>537</v>
+      </c>
+      <c r="B539" s="9">
+        <v>43930</v>
+      </c>
+      <c r="C539" s="14">
+        <v>80</v>
+      </c>
+      <c r="D539" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E539" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F539" s="10">
+        <v>43917</v>
+      </c>
+      <c r="G539" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H539" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="540" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A540" s="14">
+        <v>538</v>
+      </c>
+      <c r="B540" s="9">
+        <v>43930</v>
+      </c>
+      <c r="C540" s="14">
+        <v>30</v>
+      </c>
+      <c r="D540" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E540" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F540" s="10">
+        <v>43921</v>
+      </c>
+      <c r="G540" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H540" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="541" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A541" s="14">
+        <v>539</v>
+      </c>
+      <c r="B541" s="9">
+        <v>43930</v>
+      </c>
+      <c r="C541" s="14">
+        <v>40</v>
+      </c>
+      <c r="D541" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E541" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F541" s="10">
+        <v>43920</v>
+      </c>
+      <c r="G541" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H541" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="542" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A542" s="14">
+        <v>540</v>
+      </c>
+      <c r="B542" s="9">
+        <v>43930</v>
+      </c>
+      <c r="C542" s="14">
+        <v>20</v>
+      </c>
+      <c r="D542" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E542" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F542" s="10">
+        <v>43924</v>
+      </c>
+      <c r="G542" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H542" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="543" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A543" s="14">
+        <v>541</v>
+      </c>
+      <c r="B543" s="9">
+        <v>43930</v>
+      </c>
+      <c r="C543" s="14">
+        <v>80</v>
+      </c>
+      <c r="D543" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E543" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F543" s="10">
+        <v>43921</v>
+      </c>
+      <c r="G543" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H543" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="544" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A544" s="14">
+        <v>542</v>
+      </c>
+      <c r="B544" s="9">
+        <v>43930</v>
+      </c>
+      <c r="C544" s="14">
+        <v>10</v>
+      </c>
+      <c r="D544" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E544" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F544" s="10">
+        <v>43922</v>
+      </c>
+      <c r="G544" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H544" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="545" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A545" s="14">
+        <v>543</v>
+      </c>
+      <c r="B545" s="9">
+        <v>43930</v>
+      </c>
+      <c r="C545" s="14">
+        <v>40</v>
+      </c>
+      <c r="D545" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E545" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F545" s="10">
+        <v>43919</v>
+      </c>
+      <c r="G545" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H545" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="546" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A546" s="14">
+        <v>544</v>
+      </c>
+      <c r="B546" s="9">
+        <v>43930</v>
+      </c>
+      <c r="C546" s="14">
+        <v>80</v>
+      </c>
+      <c r="D546" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E546" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F546" s="10">
+        <v>43924</v>
+      </c>
+      <c r="G546" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H546" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="547" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A547" s="14">
+        <v>545</v>
+      </c>
+      <c r="B547" s="9">
+        <v>43930</v>
+      </c>
+      <c r="C547" s="14">
+        <v>20</v>
+      </c>
+      <c r="D547" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E547" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F547" s="10">
+        <v>43922</v>
+      </c>
+      <c r="G547" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H547" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="548" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A548" s="14">
+        <v>546</v>
+      </c>
+      <c r="B548" s="9">
+        <v>43930</v>
+      </c>
+      <c r="C548" s="14">
+        <v>20</v>
+      </c>
+      <c r="D548" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E548" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F548" s="10">
+        <v>43923</v>
+      </c>
+      <c r="G548" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H548" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="549" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A549" s="14">
+        <v>547</v>
+      </c>
+      <c r="B549" s="9">
+        <v>43930</v>
+      </c>
+      <c r="C549" s="14">
+        <v>20</v>
+      </c>
+      <c r="D549" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E549" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F549" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G549" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H549" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="550" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A550" s="14">
+        <v>548</v>
+      </c>
+      <c r="B550" s="9">
+        <v>43930</v>
+      </c>
+      <c r="C550" s="14">
+        <v>30</v>
+      </c>
+      <c r="D550" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E550" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F550" s="10">
+        <v>43916</v>
+      </c>
+      <c r="G550" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H550" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="551" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A551" s="14">
+        <v>549</v>
+      </c>
+      <c r="B551" s="9">
+        <v>43930</v>
+      </c>
+      <c r="C551" s="14">
+        <v>20</v>
+      </c>
+      <c r="D551" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E551" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F551" s="10">
+        <v>43927</v>
+      </c>
+      <c r="G551" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H551" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="552" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A552" s="14">
+        <v>550</v>
+      </c>
+      <c r="B552" s="9">
+        <v>43930</v>
+      </c>
+      <c r="C552" s="14">
+        <v>30</v>
+      </c>
+      <c r="D552" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E552" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F552" s="10">
+        <v>43926</v>
+      </c>
+      <c r="G552" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H552" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="553" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A553" s="14">
+        <v>551</v>
+      </c>
+      <c r="B553" s="9">
+        <v>43930</v>
+      </c>
+      <c r="C553" s="14">
+        <v>70</v>
+      </c>
+      <c r="D553" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E553" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F553" s="10">
+        <v>43924</v>
+      </c>
+      <c r="G553" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H553" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="554" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A554" s="14">
+        <v>552</v>
+      </c>
+      <c r="B554" s="9">
+        <v>43930</v>
+      </c>
+      <c r="C554" s="14">
+        <v>20</v>
+      </c>
+      <c r="D554" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E554" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F554" s="10">
+        <v>43922</v>
+      </c>
+      <c r="G554" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H554" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="555" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A555" s="14">
+        <v>553</v>
+      </c>
+      <c r="B555" s="9">
+        <v>43930</v>
+      </c>
+      <c r="C555" s="14">
+        <v>70</v>
+      </c>
+      <c r="D555" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E555" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F555" s="10">
+        <v>43922</v>
+      </c>
+      <c r="G555" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H555" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="556" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A556" s="14">
+        <v>554</v>
+      </c>
+      <c r="B556" s="9">
+        <v>43930</v>
+      </c>
+      <c r="C556" s="14">
+        <v>80</v>
+      </c>
+      <c r="D556" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E556" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F556" s="10">
+        <v>43926</v>
+      </c>
+      <c r="G556" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H556" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="557" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A557" s="14">
+        <v>555</v>
+      </c>
+      <c r="B557" s="9">
+        <v>43930</v>
+      </c>
+      <c r="C557" s="14">
+        <v>20</v>
+      </c>
+      <c r="D557" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E557" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F557" s="10">
+        <v>43923</v>
+      </c>
+      <c r="G557" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H557" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="558" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A558" s="14">
+        <v>556</v>
+      </c>
+      <c r="B558" s="9">
+        <v>43930</v>
+      </c>
+      <c r="C558" s="14">
+        <v>30</v>
+      </c>
+      <c r="D558" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E558" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F558" s="10">
+        <v>43923</v>
+      </c>
+      <c r="G558" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H558" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="559" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A559" s="14">
+        <v>557</v>
+      </c>
+      <c r="B559" s="9">
+        <v>43930</v>
+      </c>
+      <c r="C559" s="14">
+        <v>30</v>
+      </c>
+      <c r="D559" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E559" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F559" s="10">
+        <v>43917</v>
+      </c>
+      <c r="G559" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H559" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="560" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A560" s="14">
+        <v>558</v>
+      </c>
+      <c r="B560" s="9">
+        <v>43930</v>
+      </c>
+      <c r="C560" s="14">
+        <v>50</v>
+      </c>
+      <c r="D560" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E560" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F560" s="10">
+        <v>43920</v>
+      </c>
+      <c r="G560" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H560" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="561" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A561" s="14">
+        <v>559</v>
+      </c>
+      <c r="B561" s="9">
+        <v>43930</v>
+      </c>
+      <c r="C561" s="14">
+        <v>50</v>
+      </c>
+      <c r="D561" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E561" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F561" s="10">
+        <v>43926</v>
+      </c>
+      <c r="G561" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H561" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="562" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A562" s="14">
+        <v>560</v>
+      </c>
+      <c r="B562" s="9">
+        <v>43930</v>
+      </c>
+      <c r="C562" s="14">
+        <v>40</v>
+      </c>
+      <c r="D562" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E562" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F562" s="10">
+        <v>43921</v>
+      </c>
+      <c r="G562" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H562" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="563" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A563" s="14">
+        <v>561</v>
+      </c>
+      <c r="B563" s="9">
+        <v>43930</v>
+      </c>
+      <c r="C563" s="14">
+        <v>30</v>
+      </c>
+      <c r="D563" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E563" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F563" s="10">
+        <v>43921</v>
+      </c>
+      <c r="G563" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H563" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="564" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A564" s="14">
+        <v>562</v>
+      </c>
+      <c r="B564" s="9">
+        <v>43930</v>
+      </c>
+      <c r="C564" s="14">
+        <v>10</v>
+      </c>
+      <c r="D564" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E564" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F564" s="10">
+        <v>43922</v>
+      </c>
+      <c r="G564" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H564" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="565" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A565" s="14">
+        <v>563</v>
+      </c>
+      <c r="B565" s="9">
+        <v>43930</v>
+      </c>
+      <c r="C565" s="14">
+        <v>40</v>
+      </c>
+      <c r="D565" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E565" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F565" s="10">
+        <v>43925</v>
+      </c>
+      <c r="G565" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H565" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="566" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A566" s="14">
+        <v>564</v>
+      </c>
+      <c r="B566" s="9">
+        <v>43930</v>
+      </c>
+      <c r="C566" s="14">
+        <v>40</v>
+      </c>
+      <c r="D566" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E566" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F566" s="10">
+        <v>43928</v>
+      </c>
+      <c r="G566" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H566" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="567" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A567" s="14">
+        <v>565</v>
+      </c>
+      <c r="B567" s="9">
+        <v>43930</v>
+      </c>
+      <c r="C567" s="14">
+        <v>30</v>
+      </c>
+      <c r="D567" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E567" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F567" s="10">
+        <v>43926</v>
+      </c>
+      <c r="G567" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H567" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="568" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A568" s="14">
+        <v>566</v>
+      </c>
+      <c r="B568" s="9">
+        <v>43930</v>
+      </c>
+      <c r="C568" s="14">
+        <v>20</v>
+      </c>
+      <c r="D568" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E568" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F568" s="10">
+        <v>43925</v>
+      </c>
+      <c r="G568" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H568" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="569" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A569" s="14">
+        <v>567</v>
+      </c>
+      <c r="B569" s="9">
+        <v>43930</v>
+      </c>
+      <c r="C569" s="14">
+        <v>30</v>
+      </c>
+      <c r="D569" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E569" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F569" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G569" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H569" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="570" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A570" s="14">
+        <v>568</v>
+      </c>
+      <c r="B570" s="9">
+        <v>43930</v>
+      </c>
+      <c r="C570" s="14">
+        <v>20</v>
+      </c>
+      <c r="D570" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E570" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F570" s="10">
+        <v>43917</v>
+      </c>
+      <c r="G570" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H570" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="571" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A571" s="14">
+        <v>569</v>
+      </c>
+      <c r="B571" s="9">
+        <v>43930</v>
+      </c>
+      <c r="C571" s="14">
+        <v>30</v>
+      </c>
+      <c r="D571" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E571" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F571" s="10">
+        <v>43927</v>
+      </c>
+      <c r="G571" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H571" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="572" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A572" s="14">
+        <v>570</v>
+      </c>
+      <c r="B572" s="9">
+        <v>43930</v>
+      </c>
+      <c r="C572" s="14">
+        <v>40</v>
+      </c>
+      <c r="D572" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E572" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F572" s="10">
+        <v>43927</v>
+      </c>
+      <c r="G572" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H572" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="573" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A573" s="14">
+        <v>571</v>
+      </c>
+      <c r="B573" s="9">
+        <v>43930</v>
+      </c>
+      <c r="C573" s="14">
+        <v>60</v>
+      </c>
+      <c r="D573" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E573" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F573" s="10">
+        <v>43926</v>
+      </c>
+      <c r="G573" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H573" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="574" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A574" s="14">
+        <v>572</v>
+      </c>
+      <c r="B574" s="9">
+        <v>43930</v>
+      </c>
+      <c r="C574" s="14">
+        <v>70</v>
+      </c>
+      <c r="D574" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E574" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F574" s="10">
+        <v>43926</v>
+      </c>
+      <c r="G574" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H574" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="575" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A575" s="14">
+        <v>573</v>
+      </c>
+      <c r="B575" s="9">
+        <v>43930</v>
+      </c>
+      <c r="C575" s="14">
+        <v>70</v>
+      </c>
+      <c r="D575" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E575" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F575" s="10">
+        <v>43926</v>
+      </c>
+      <c r="G575" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H575" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="576" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A576" s="14">
+        <v>574</v>
+      </c>
+      <c r="B576" s="9">
+        <v>43930</v>
+      </c>
+      <c r="C576" s="14">
+        <v>80</v>
+      </c>
+      <c r="D576" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E576" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F576" s="10">
+        <v>43926</v>
+      </c>
+      <c r="G576" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H576" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="577" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A577" s="14">
+        <v>575</v>
+      </c>
+      <c r="B577" s="9">
+        <v>43930</v>
+      </c>
+      <c r="C577" s="14">
+        <v>80</v>
+      </c>
+      <c r="D577" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E577" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F577" s="10">
+        <v>43917</v>
+      </c>
+      <c r="G577" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H577" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="578" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A578" s="14">
+        <v>576</v>
+      </c>
+      <c r="B578" s="9">
+        <v>43930</v>
+      </c>
+      <c r="C578" s="14">
+        <v>20</v>
+      </c>
+      <c r="D578" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E578" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F578" s="10">
+        <v>43921</v>
+      </c>
+      <c r="G578" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H578" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="579" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A579" s="14">
+        <v>577</v>
+      </c>
+      <c r="B579" s="9">
+        <v>43930</v>
+      </c>
+      <c r="C579" s="14">
+        <v>20</v>
+      </c>
+      <c r="D579" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E579" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F579" s="10">
+        <v>43917</v>
+      </c>
+      <c r="G579" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H579" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="580" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A580" s="14">
+        <v>578</v>
+      </c>
+      <c r="B580" s="9">
+        <v>43930</v>
+      </c>
+      <c r="C580" s="14">
+        <v>10</v>
+      </c>
+      <c r="D580" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E580" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F580" s="10">
+        <v>43922</v>
+      </c>
+      <c r="G580" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H580" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="581" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A581" s="14">
+        <v>579</v>
+      </c>
+      <c r="B581" s="9">
+        <v>43930</v>
+      </c>
+      <c r="C581" s="14">
+        <v>20</v>
+      </c>
+      <c r="D581" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E581" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F581" s="10">
+        <v>43923</v>
+      </c>
+      <c r="G581" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H581" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="582" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A582" s="14">
+        <v>580</v>
+      </c>
+      <c r="B582" s="9">
+        <v>43930</v>
+      </c>
+      <c r="C582" s="14">
+        <v>20</v>
+      </c>
+      <c r="D582" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E582" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F582" s="10">
+        <v>43918</v>
+      </c>
+      <c r="G582" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H582" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="583" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A583" s="14">
+        <v>581</v>
+      </c>
+      <c r="B583" s="9">
+        <v>43930</v>
+      </c>
+      <c r="C583" s="14">
+        <v>30</v>
+      </c>
+      <c r="D583" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E583" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F583" s="10">
+        <v>43922</v>
+      </c>
+      <c r="G583" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H583" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="584" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A584" s="14">
+        <v>582</v>
+      </c>
+      <c r="B584" s="9">
+        <v>43930</v>
+      </c>
+      <c r="C584" s="14">
+        <v>80</v>
+      </c>
+      <c r="D584" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E584" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F584" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G584" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H584" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="585" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A585" s="14">
+        <v>583</v>
+      </c>
+      <c r="B585" s="9">
+        <v>43930</v>
+      </c>
+      <c r="C585" s="14">
+        <v>20</v>
+      </c>
+      <c r="D585" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E585" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F585" s="10">
+        <v>43924</v>
+      </c>
+      <c r="G585" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H585" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="586" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A586" s="14">
+        <v>584</v>
+      </c>
+      <c r="B586" s="9">
+        <v>43930</v>
+      </c>
+      <c r="C586" s="14">
+        <v>60</v>
+      </c>
+      <c r="D586" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E586" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F586" s="10">
+        <v>43924</v>
+      </c>
+      <c r="G586" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H586" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="587" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A587" s="14">
+        <v>585</v>
+      </c>
+      <c r="B587" s="9">
+        <v>43930</v>
+      </c>
+      <c r="C587" s="14">
+        <v>70</v>
+      </c>
+      <c r="D587" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E587" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F587" s="10">
+        <v>43926</v>
+      </c>
+      <c r="G587" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H587" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="588" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A588" s="14">
+        <v>586</v>
+      </c>
+      <c r="B588" s="9">
+        <v>43930</v>
+      </c>
+      <c r="C588" s="14">
+        <v>30</v>
+      </c>
+      <c r="D588" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E588" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F588" s="10">
+        <v>43922</v>
+      </c>
+      <c r="G588" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H588" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="589" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A589" s="14">
+        <v>587</v>
+      </c>
+      <c r="B589" s="9">
+        <v>43930</v>
+      </c>
+      <c r="C589" s="14">
+        <v>30</v>
+      </c>
+      <c r="D589" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E589" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F589" s="10">
+        <v>43924</v>
+      </c>
+      <c r="G589" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H589" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="590" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A590" s="14">
+        <v>588</v>
+      </c>
+      <c r="B590" s="9">
+        <v>43930</v>
+      </c>
+      <c r="C590" s="14">
+        <v>70</v>
+      </c>
+      <c r="D590" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E590" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F590" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G590" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H590" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="591" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A591" s="14">
+        <v>589</v>
+      </c>
+      <c r="B591" s="9">
+        <v>43930</v>
+      </c>
+      <c r="C591" s="14">
+        <v>50</v>
+      </c>
+      <c r="D591" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E591" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F591" s="10">
+        <v>43925</v>
+      </c>
+      <c r="G591" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H591" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="592" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A592" s="14">
+        <v>590</v>
+      </c>
+      <c r="B592" s="9">
+        <v>43930</v>
+      </c>
+      <c r="C592" s="14">
+        <v>20</v>
+      </c>
+      <c r="D592" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E592" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F592" s="10">
+        <v>43913</v>
+      </c>
+      <c r="G592" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H592" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="593" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A593" s="14">
+        <v>591</v>
+      </c>
+      <c r="B593" s="9">
+        <v>43930</v>
+      </c>
+      <c r="C593" s="14">
+        <v>30</v>
+      </c>
+      <c r="D593" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E593" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F593" s="10">
+        <v>43920</v>
+      </c>
+      <c r="G593" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H593" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="594" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A594" s="14">
+        <v>592</v>
+      </c>
+      <c r="B594" s="9">
+        <v>43930</v>
+      </c>
+      <c r="C594" s="14">
+        <v>20</v>
+      </c>
+      <c r="D594" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E594" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F594" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G594" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H594" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="595" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A595" s="14">
+        <v>593</v>
+      </c>
+      <c r="B595" s="9">
+        <v>43930</v>
+      </c>
+      <c r="C595" s="14">
+        <v>20</v>
+      </c>
+      <c r="D595" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E595" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F595" s="10">
+        <v>43929</v>
+      </c>
+      <c r="G595" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H595" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="596" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A596" s="14">
+        <v>594</v>
+      </c>
+      <c r="B596" s="9">
+        <v>43930</v>
+      </c>
+      <c r="C596" s="14">
+        <v>40</v>
+      </c>
+      <c r="D596" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E596" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F596" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G596" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H596" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="597" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A597" s="14">
+        <v>595</v>
+      </c>
+      <c r="B597" s="9">
+        <v>43930</v>
+      </c>
+      <c r="C597" s="14">
+        <v>10</v>
+      </c>
+      <c r="D597" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E597" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F597" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G597" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H597" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="598" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A598" s="14">
+        <v>596</v>
+      </c>
+      <c r="B598" s="9">
+        <v>43930</v>
+      </c>
+      <c r="C598" s="14">
+        <v>60</v>
+      </c>
+      <c r="D598" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E598" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F598" s="10">
+        <v>43926</v>
+      </c>
+      <c r="G598" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H598" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="599" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A599" s="14">
+        <v>597</v>
+      </c>
+      <c r="B599" s="9">
+        <v>43930</v>
+      </c>
+      <c r="C599" s="14">
+        <v>50</v>
+      </c>
+      <c r="D599" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E599" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F599" s="10">
+        <v>43921</v>
+      </c>
+      <c r="G599" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H599" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="600" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A600" s="14">
+        <v>598</v>
+      </c>
+      <c r="B600" s="9">
+        <v>43930</v>
+      </c>
+      <c r="C600" s="14">
+        <v>50</v>
+      </c>
+      <c r="D600" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E600" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F600" s="10">
+        <v>43925</v>
+      </c>
+      <c r="G600" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H600" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="601" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A601" s="14">
+        <v>599</v>
+      </c>
+      <c r="B601" s="9">
+        <v>43930</v>
+      </c>
+      <c r="C601" s="14">
+        <v>10</v>
+      </c>
+      <c r="D601" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E601" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F601" s="10">
+        <v>43925</v>
+      </c>
+      <c r="G601" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H601" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="602" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A602" s="14">
+        <v>600</v>
+      </c>
+      <c r="B602" s="9">
+        <v>43930</v>
+      </c>
+      <c r="C602" s="14">
+        <v>10</v>
+      </c>
+      <c r="D602" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E602" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F602" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G602" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H602" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="603" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A603" s="14">
+        <v>601</v>
+      </c>
+      <c r="B603" s="9">
+        <v>43930</v>
+      </c>
+      <c r="C603" s="14">
+        <v>10</v>
+      </c>
+      <c r="D603" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E603" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F603" s="10">
+        <v>43928</v>
+      </c>
+      <c r="G603" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H603" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="604" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A604" s="14">
+        <v>602</v>
+      </c>
+      <c r="B604" s="9">
+        <v>43930</v>
+      </c>
+      <c r="C604" s="14">
+        <v>20</v>
+      </c>
+      <c r="D604" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E604" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F604" s="10">
+        <v>43926</v>
+      </c>
+      <c r="G604" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H604" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="605" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A605" s="14">
+        <v>603</v>
+      </c>
+      <c r="B605" s="9">
+        <v>43930</v>
+      </c>
+      <c r="C605" s="14">
+        <v>30</v>
+      </c>
+      <c r="D605" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E605" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F605" s="10">
+        <v>43924</v>
+      </c>
+      <c r="G605" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H605" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="606" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A606" s="14">
+        <v>604</v>
+      </c>
+      <c r="B606" s="9">
+        <v>43930</v>
+      </c>
+      <c r="C606" s="14">
+        <v>40</v>
+      </c>
+      <c r="D606" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E606" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F606" s="10">
+        <v>43926</v>
+      </c>
+      <c r="G606" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H606" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="607" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A607" s="14">
+        <v>605</v>
+      </c>
+      <c r="B607" s="9">
+        <v>43930</v>
+      </c>
+      <c r="C607" s="14">
+        <v>60</v>
+      </c>
+      <c r="D607" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E607" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F607" s="10">
+        <v>43924</v>
+      </c>
+      <c r="G607" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H607" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="608" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A608" s="14">
+        <v>606</v>
+      </c>
+      <c r="B608" s="9">
+        <v>43930</v>
+      </c>
+      <c r="C608" s="14">
+        <v>20</v>
+      </c>
+      <c r="D608" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E608" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F608" s="10">
+        <v>43922</v>
+      </c>
+      <c r="G608" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H608" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="609" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A609" s="14">
+        <v>607</v>
+      </c>
+      <c r="B609" s="9">
+        <v>43930</v>
+      </c>
+      <c r="C609" s="14">
+        <v>20</v>
+      </c>
+      <c r="D609" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E609" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F609" s="10">
+        <v>43924</v>
+      </c>
+      <c r="G609" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H609" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="610" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A610" s="14">
+        <v>608</v>
+      </c>
+      <c r="B610" s="9">
+        <v>43930</v>
+      </c>
+      <c r="C610" s="14">
+        <v>20</v>
+      </c>
+      <c r="D610" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E610" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F610" s="10">
+        <v>43923</v>
+      </c>
+      <c r="G610" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H610" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="611" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A611" s="14">
+        <v>609</v>
+      </c>
+      <c r="B611" s="9">
+        <v>43930</v>
+      </c>
+      <c r="C611" s="14">
+        <v>80</v>
+      </c>
+      <c r="D611" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E611" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F611" s="10">
+        <v>43923</v>
+      </c>
+      <c r="G611" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H611" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="612" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A612" s="14">
+        <v>610</v>
+      </c>
+      <c r="B612" s="9">
+        <v>43930</v>
+      </c>
+      <c r="C612" s="14">
+        <v>50</v>
+      </c>
+      <c r="D612" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E612" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F612" s="10">
+        <v>43924</v>
+      </c>
+      <c r="G612" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H612" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="613" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A613" s="14">
+        <v>611</v>
+      </c>
+      <c r="B613" s="9">
+        <v>43930</v>
+      </c>
+      <c r="C613" s="14">
+        <v>10</v>
+      </c>
+      <c r="D613" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E613" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F613" s="10">
+        <v>43924</v>
+      </c>
+      <c r="G613" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H613" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="614" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A614" s="14">
+        <v>612</v>
+      </c>
+      <c r="B614" s="9">
+        <v>43930</v>
+      </c>
+      <c r="C614" s="14">
+        <v>10</v>
+      </c>
+      <c r="D614" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E614" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F614" s="10">
+        <v>43926</v>
+      </c>
+      <c r="G614" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H614" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="615" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A615" s="14">
+        <v>613</v>
+      </c>
+      <c r="B615" s="9">
+        <v>43930</v>
+      </c>
+      <c r="C615" s="14">
+        <v>20</v>
+      </c>
+      <c r="D615" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E615" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F615" s="10">
+        <v>43925</v>
+      </c>
+      <c r="G615" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H615" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="616" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A616" s="14">
+        <v>614</v>
+      </c>
+      <c r="B616" s="9">
+        <v>43930</v>
+      </c>
+      <c r="C616" s="14">
+        <v>30</v>
+      </c>
+      <c r="D616" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E616" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F616" s="10">
+        <v>43926</v>
+      </c>
+      <c r="G616" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H616" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="617" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A617" s="14">
+        <v>615</v>
+      </c>
+      <c r="B617" s="9">
+        <v>43930</v>
+      </c>
+      <c r="C617" s="14">
+        <v>50</v>
+      </c>
+      <c r="D617" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E617" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F617" s="10">
+        <v>43924</v>
+      </c>
+      <c r="G617" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H617" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="618" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A618" s="14">
+        <v>616</v>
+      </c>
+      <c r="B618" s="9">
+        <v>43930</v>
+      </c>
+      <c r="C618" s="14">
+        <v>50</v>
+      </c>
+      <c r="D618" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E618" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F618" s="10">
+        <v>43929</v>
+      </c>
+      <c r="G618" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H618" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="619" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A619" s="14">
+        <v>617</v>
+      </c>
+      <c r="B619" s="9">
+        <v>43931</v>
+      </c>
+      <c r="C619" s="14">
+        <v>50</v>
+      </c>
+      <c r="D619" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E619" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F619" s="10">
+        <v>43927</v>
+      </c>
+      <c r="G619" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H619" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="620" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A620" s="14">
+        <v>618</v>
+      </c>
+      <c r="B620" s="9">
+        <v>43931</v>
+      </c>
+      <c r="C620" s="14">
+        <v>20</v>
+      </c>
+      <c r="D620" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E620" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F620" s="10">
+        <v>43922</v>
+      </c>
+      <c r="G620" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H620" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="621" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A621" s="14">
+        <v>619</v>
+      </c>
+      <c r="B621" s="9">
+        <v>43931</v>
+      </c>
+      <c r="C621" s="14">
+        <v>20</v>
+      </c>
+      <c r="D621" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E621" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F621" s="10">
+        <v>43921</v>
+      </c>
+      <c r="G621" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H621" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="622" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A622" s="14">
+        <v>620</v>
+      </c>
+      <c r="B622" s="9">
+        <v>43931</v>
+      </c>
+      <c r="C622" s="14">
+        <v>20</v>
+      </c>
+      <c r="D622" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E622" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F622" s="10">
+        <v>43923</v>
+      </c>
+      <c r="G622" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H622" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="623" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A623" s="14">
+        <v>621</v>
+      </c>
+      <c r="B623" s="9">
+        <v>43931</v>
+      </c>
+      <c r="C623" s="14">
+        <v>10</v>
+      </c>
+      <c r="D623" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E623" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F623" s="10">
+        <v>43925</v>
+      </c>
+      <c r="G623" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H623" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="624" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A624" s="14">
+        <v>622</v>
+      </c>
+      <c r="B624" s="9">
+        <v>43931</v>
+      </c>
+      <c r="C624" s="14">
+        <v>50</v>
+      </c>
+      <c r="D624" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E624" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F624" s="10">
+        <v>43925</v>
+      </c>
+      <c r="G624" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H624" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="625" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A625" s="14">
+        <v>623</v>
+      </c>
+      <c r="B625" s="9">
+        <v>43931</v>
+      </c>
+      <c r="C625" s="14">
+        <v>40</v>
+      </c>
+      <c r="D625" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E625" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F625" s="10">
+        <v>43922</v>
+      </c>
+      <c r="G625" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H625" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="626" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A626" s="14">
+        <v>624</v>
+      </c>
+      <c r="B626" s="9">
+        <v>43931</v>
+      </c>
+      <c r="C626" s="14">
+        <v>70</v>
+      </c>
+      <c r="D626" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E626" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F626" s="10">
+        <v>43924</v>
+      </c>
+      <c r="G626" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H626" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="627" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A627" s="14">
+        <v>625</v>
+      </c>
+      <c r="B627" s="9">
+        <v>43931</v>
+      </c>
+      <c r="C627" s="14">
+        <v>40</v>
+      </c>
+      <c r="D627" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E627" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F627" s="10">
+        <v>43925</v>
+      </c>
+      <c r="G627" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H627" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="628" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A628" s="14">
+        <v>626</v>
+      </c>
+      <c r="B628" s="9">
+        <v>43931</v>
+      </c>
+      <c r="C628" s="14">
+        <v>60</v>
+      </c>
+      <c r="D628" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E628" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F628" s="10">
+        <v>43922</v>
+      </c>
+      <c r="G628" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H628" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="629" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A629" s="14">
+        <v>627</v>
+      </c>
+      <c r="B629" s="9">
+        <v>43931</v>
+      </c>
+      <c r="C629" s="14">
+        <v>40</v>
+      </c>
+      <c r="D629" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E629" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F629" s="10">
+        <v>43921</v>
+      </c>
+      <c r="G629" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H629" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="630" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A630" s="14">
+        <v>628</v>
+      </c>
+      <c r="B630" s="9">
+        <v>43931</v>
+      </c>
+      <c r="C630" s="14">
+        <v>70</v>
+      </c>
+      <c r="D630" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E630" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F630" s="10">
+        <v>43922</v>
+      </c>
+      <c r="G630" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H630" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="631" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A631" s="14">
+        <v>629</v>
+      </c>
+      <c r="B631" s="9">
+        <v>43931</v>
+      </c>
+      <c r="C631" s="14">
+        <v>40</v>
+      </c>
+      <c r="D631" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E631" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F631" s="10">
+        <v>43927</v>
+      </c>
+      <c r="G631" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H631" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="632" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A632" s="14">
+        <v>630</v>
+      </c>
+      <c r="B632" s="9">
+        <v>43931</v>
+      </c>
+      <c r="C632" s="14">
+        <v>20</v>
+      </c>
+      <c r="D632" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E632" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F632" s="10">
+        <v>43922</v>
+      </c>
+      <c r="G632" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H632" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="633" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A633" s="14">
+        <v>631</v>
+      </c>
+      <c r="B633" s="9">
+        <v>43931</v>
+      </c>
+      <c r="C633" s="14">
+        <v>20</v>
+      </c>
+      <c r="D633" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E633" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F633" s="10">
+        <v>43926</v>
+      </c>
+      <c r="G633" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H633" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="634" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A634" s="14">
+        <v>632</v>
+      </c>
+      <c r="B634" s="9">
+        <v>43931</v>
+      </c>
+      <c r="C634" s="14">
+        <v>10</v>
+      </c>
+      <c r="D634" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E634" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F634" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G634" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H634" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="635" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A635" s="14">
+        <v>633</v>
+      </c>
+      <c r="B635" s="9">
+        <v>43931</v>
+      </c>
+      <c r="C635" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D635" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E635" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F635" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G635" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H635" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="636" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A636" s="14">
+        <v>634</v>
+      </c>
+      <c r="B636" s="9">
+        <v>43931</v>
+      </c>
+      <c r="C636" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D636" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E636" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F636" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G636" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H636" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="637" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A637" s="14">
+        <v>635</v>
+      </c>
+      <c r="B637" s="9">
+        <v>43931</v>
+      </c>
+      <c r="C637" s="14">
+        <v>40</v>
+      </c>
+      <c r="D637" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E637" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F637" s="10">
+        <v>43919</v>
+      </c>
+      <c r="G637" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H637" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="638" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A638" s="14">
+        <v>636</v>
+      </c>
+      <c r="B638" s="9">
+        <v>43931</v>
+      </c>
+      <c r="C638" s="14">
+        <v>30</v>
+      </c>
+      <c r="D638" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E638" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F638" s="10">
+        <v>43923</v>
+      </c>
+      <c r="G638" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H638" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="639" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A639" s="14">
+        <v>637</v>
+      </c>
+      <c r="B639" s="9">
+        <v>43931</v>
+      </c>
+      <c r="C639" s="14">
+        <v>60</v>
+      </c>
+      <c r="D639" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E639" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F639" s="10">
+        <v>43924</v>
+      </c>
+      <c r="G639" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H639" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="640" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A640" s="14">
+        <v>638</v>
+      </c>
+      <c r="B640" s="9">
+        <v>43931</v>
+      </c>
+      <c r="C640" s="14">
+        <v>30</v>
+      </c>
+      <c r="D640" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E640" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F640" s="10">
+        <v>43921</v>
+      </c>
+      <c r="G640" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H640" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="641" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A641" s="14">
+        <v>639</v>
+      </c>
+      <c r="B641" s="9">
+        <v>43931</v>
+      </c>
+      <c r="C641" s="14">
+        <v>30</v>
+      </c>
+      <c r="D641" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E641" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F641" s="10">
+        <v>43921</v>
+      </c>
+      <c r="G641" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H641" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="642" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A642" s="14">
+        <v>640</v>
+      </c>
+      <c r="B642" s="9">
+        <v>43931</v>
+      </c>
+      <c r="C642" s="14">
+        <v>50</v>
+      </c>
+      <c r="D642" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E642" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F642" s="10">
+        <v>43925</v>
+      </c>
+      <c r="G642" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H642" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="643" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A643" s="14">
+        <v>641</v>
+      </c>
+      <c r="B643" s="9">
+        <v>43931</v>
+      </c>
+      <c r="C643" s="14">
+        <v>30</v>
+      </c>
+      <c r="D643" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E643" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F643" s="10">
+        <v>43925</v>
+      </c>
+      <c r="G643" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H643" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="644" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A644" s="14">
+        <v>642</v>
+      </c>
+      <c r="B644" s="9">
+        <v>43931</v>
+      </c>
+      <c r="C644" s="14">
+        <v>70</v>
+      </c>
+      <c r="D644" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E644" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F644" s="10">
+        <v>43927</v>
+      </c>
+      <c r="G644" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H644" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="645" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A645" s="14">
+        <v>643</v>
+      </c>
+      <c r="B645" s="9">
+        <v>43931</v>
+      </c>
+      <c r="C645" s="14">
+        <v>70</v>
+      </c>
+      <c r="D645" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E645" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F645" s="10">
+        <v>43926</v>
+      </c>
+      <c r="G645" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H645" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="646" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A646" s="14">
+        <v>644</v>
+      </c>
+      <c r="B646" s="9">
+        <v>43931</v>
+      </c>
+      <c r="C646" s="14">
+        <v>70</v>
+      </c>
+      <c r="D646" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E646" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F646" s="10">
+        <v>43928</v>
+      </c>
+      <c r="G646" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H646" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="647" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A647" s="14">
+        <v>645</v>
+      </c>
+      <c r="B647" s="9">
+        <v>43931</v>
+      </c>
+      <c r="C647" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D647" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E647" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F647" s="10">
+        <v>43925</v>
+      </c>
+      <c r="G647" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H647" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="648" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A648" s="14">
+        <v>646</v>
+      </c>
+      <c r="B648" s="9">
+        <v>43931</v>
+      </c>
+      <c r="C648" s="14">
+        <v>60</v>
+      </c>
+      <c r="D648" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E648" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F648" s="10">
+        <v>43925</v>
+      </c>
+      <c r="G648" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H648" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="649" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A649" s="14">
+        <v>647</v>
+      </c>
+      <c r="B649" s="9">
+        <v>43931</v>
+      </c>
+      <c r="C649" s="14">
+        <v>60</v>
+      </c>
+      <c r="D649" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E649" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F649" s="10">
+        <v>43928</v>
+      </c>
+      <c r="G649" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H649" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="650" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A650" s="14">
+        <v>648</v>
+      </c>
+      <c r="B650" s="9">
+        <v>43931</v>
+      </c>
+      <c r="C650" s="14">
+        <v>60</v>
+      </c>
+      <c r="D650" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E650" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F650" s="10">
+        <v>43926</v>
+      </c>
+      <c r="G650" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H650" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="651" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A651" s="14">
+        <v>649</v>
+      </c>
+      <c r="B651" s="9">
+        <v>43931</v>
+      </c>
+      <c r="C651" s="14">
+        <v>30</v>
+      </c>
+      <c r="D651" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E651" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F651" s="10">
+        <v>43915</v>
+      </c>
+      <c r="G651" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H651" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="652" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A652" s="14">
+        <v>650</v>
+      </c>
+      <c r="B652" s="9">
+        <v>43931</v>
+      </c>
+      <c r="C652" s="14">
+        <v>40</v>
+      </c>
+      <c r="D652" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E652" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F652" s="10">
+        <v>43926</v>
+      </c>
+      <c r="G652" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H652" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="653" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A653" s="14">
+        <v>651</v>
+      </c>
+      <c r="B653" s="9">
+        <v>43931</v>
+      </c>
+      <c r="C653" s="14">
+        <v>40</v>
+      </c>
+      <c r="D653" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E653" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F653" s="10">
+        <v>43925</v>
+      </c>
+      <c r="G653" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H653" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="654" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A654" s="14">
+        <v>652</v>
+      </c>
+      <c r="B654" s="9">
+        <v>43931</v>
+      </c>
+      <c r="C654" s="14">
+        <v>30</v>
+      </c>
+      <c r="D654" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E654" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F654" s="10">
+        <v>43924</v>
+      </c>
+      <c r="G654" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H654" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="655" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A655" s="14">
+        <v>653</v>
+      </c>
+      <c r="B655" s="9">
+        <v>43931</v>
+      </c>
+      <c r="C655" s="14">
+        <v>20</v>
+      </c>
+      <c r="D655" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E655" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F655" s="10">
+        <v>43924</v>
+      </c>
+      <c r="G655" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H655" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="656" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A656" s="14">
+        <v>654</v>
+      </c>
+      <c r="B656" s="9">
+        <v>43931</v>
+      </c>
+      <c r="C656" s="14">
+        <v>60</v>
+      </c>
+      <c r="D656" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E656" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F656" s="10">
+        <v>43926</v>
+      </c>
+      <c r="G656" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H656" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="657" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A657" s="14">
+        <v>655</v>
+      </c>
+      <c r="B657" s="9">
+        <v>43931</v>
+      </c>
+      <c r="C657" s="14">
+        <v>30</v>
+      </c>
+      <c r="D657" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E657" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F657" s="10">
+        <v>43928</v>
+      </c>
+      <c r="G657" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H657" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="658" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A658" s="14">
+        <v>656</v>
+      </c>
+      <c r="B658" s="9">
+        <v>43931</v>
+      </c>
+      <c r="C658" s="14">
+        <v>40</v>
+      </c>
+      <c r="D658" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E658" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F658" s="10">
+        <v>43926</v>
+      </c>
+      <c r="G658" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H658" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="659" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A659" s="14">
+        <v>657</v>
+      </c>
+      <c r="B659" s="9">
+        <v>43931</v>
+      </c>
+      <c r="C659" s="14">
+        <v>70</v>
+      </c>
+      <c r="D659" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E659" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F659" s="10">
+        <v>43923</v>
+      </c>
+      <c r="G659" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H659" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="660" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A660" s="14">
+        <v>658</v>
+      </c>
+      <c r="B660" s="9">
+        <v>43931</v>
+      </c>
+      <c r="C660" s="14">
+        <v>10</v>
+      </c>
+      <c r="D660" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E660" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F660" s="10">
+        <v>43920</v>
+      </c>
+      <c r="G660" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H660" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="661" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A661" s="14">
+        <v>659</v>
+      </c>
+      <c r="B661" s="9">
+        <v>43931</v>
+      </c>
+      <c r="C661" s="14">
+        <v>20</v>
+      </c>
+      <c r="D661" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E661" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F661" s="10">
+        <v>43924</v>
+      </c>
+      <c r="G661" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H661" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="662" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A662" s="14">
+        <v>660</v>
+      </c>
+      <c r="B662" s="9">
+        <v>43931</v>
+      </c>
+      <c r="C662" s="14">
+        <v>70</v>
+      </c>
+      <c r="D662" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E662" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F662" s="10">
+        <v>43927</v>
+      </c>
+      <c r="G662" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H662" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="663" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A663" s="14">
+        <v>661</v>
+      </c>
+      <c r="B663" s="9">
+        <v>43931</v>
+      </c>
+      <c r="C663" s="14">
+        <v>90</v>
+      </c>
+      <c r="D663" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E663" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F663" s="10">
+        <v>43924</v>
+      </c>
+      <c r="G663" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H663" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="664" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A664" s="14">
+        <v>662</v>
+      </c>
+      <c r="B664" s="9">
+        <v>43931</v>
+      </c>
+      <c r="C664" s="14">
+        <v>40</v>
+      </c>
+      <c r="D664" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E664" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F664" s="10">
+        <v>43916</v>
+      </c>
+      <c r="G664" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H664" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="665" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A665" s="14">
+        <v>663</v>
+      </c>
+      <c r="B665" s="9">
+        <v>43931</v>
+      </c>
+      <c r="C665" s="14">
+        <v>20</v>
+      </c>
+      <c r="D665" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E665" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F665" s="10">
+        <v>43918</v>
+      </c>
+      <c r="G665" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H665" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="666" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A666" s="14">
+        <v>664</v>
+      </c>
+      <c r="B666" s="9">
+        <v>43931</v>
+      </c>
+      <c r="C666" s="14">
+        <v>70</v>
+      </c>
+      <c r="D666" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E666" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F666" s="10">
+        <v>43925</v>
+      </c>
+      <c r="G666" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H666" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="667" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A667" s="14">
+        <v>665</v>
+      </c>
+      <c r="B667" s="9">
+        <v>43931</v>
+      </c>
+      <c r="C667" s="14">
+        <v>30</v>
+      </c>
+      <c r="D667" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E667" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F667" s="10">
+        <v>43920</v>
+      </c>
+      <c r="G667" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H667" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="668" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A668" s="14">
+        <v>666</v>
+      </c>
+      <c r="B668" s="9">
+        <v>43931</v>
+      </c>
+      <c r="C668" s="14">
+        <v>20</v>
+      </c>
+      <c r="D668" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E668" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F668" s="10">
+        <v>43930</v>
+      </c>
+      <c r="G668" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H668" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="669" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A669" s="14">
+        <v>667</v>
+      </c>
+      <c r="B669" s="9">
+        <v>43931</v>
+      </c>
+      <c r="C669" s="14">
+        <v>30</v>
+      </c>
+      <c r="D669" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E669" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F669" s="10">
+        <v>43926</v>
+      </c>
+      <c r="G669" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H669" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="670" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A670" s="14">
+        <v>668</v>
+      </c>
+      <c r="B670" s="9">
+        <v>43931</v>
+      </c>
+      <c r="C670" s="14">
+        <v>50</v>
+      </c>
+      <c r="D670" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E670" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F670" s="10">
+        <v>43922</v>
+      </c>
+      <c r="G670" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H670" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="671" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A671" s="14">
+        <v>669</v>
+      </c>
+      <c r="B671" s="9">
+        <v>43931</v>
+      </c>
+      <c r="C671" s="14">
+        <v>50</v>
+      </c>
+      <c r="D671" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E671" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F671" s="10">
+        <v>43927</v>
+      </c>
+      <c r="G671" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H671" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="672" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A672" s="14">
+        <v>670</v>
+      </c>
+      <c r="B672" s="9">
+        <v>43931</v>
+      </c>
+      <c r="C672" s="14">
+        <v>60</v>
+      </c>
+      <c r="D672" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E672" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F672" s="10">
+        <v>43927</v>
+      </c>
+      <c r="G672" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H672" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="673" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A673" s="14">
+        <v>671</v>
+      </c>
+      <c r="B673" s="9">
+        <v>43931</v>
+      </c>
+      <c r="C673" s="14">
+        <v>40</v>
+      </c>
+      <c r="D673" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E673" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F673" s="10">
+        <v>43927</v>
+      </c>
+      <c r="G673" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H673" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="674" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A674" s="14">
+        <v>672</v>
+      </c>
+      <c r="B674" s="9">
+        <v>43931</v>
+      </c>
+      <c r="C674" s="14">
+        <v>40</v>
+      </c>
+      <c r="D674" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E674" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F674" s="10">
+        <v>43922</v>
+      </c>
+      <c r="G674" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H674" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="675" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A675" s="14">
+        <v>673</v>
+      </c>
+      <c r="B675" s="9">
+        <v>43931</v>
+      </c>
+      <c r="C675" s="14">
+        <v>20</v>
+      </c>
+      <c r="D675" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E675" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F675" s="10">
+        <v>43919</v>
+      </c>
+      <c r="G675" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H675" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="676" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A676" s="14">
+        <v>674</v>
+      </c>
+      <c r="B676" s="9">
+        <v>43931</v>
+      </c>
+      <c r="C676" s="14">
+        <v>50</v>
+      </c>
+      <c r="D676" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E676" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F676" s="10">
+        <v>43926</v>
+      </c>
+      <c r="G676" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H676" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="677" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A677" s="14">
+        <v>675</v>
+      </c>
+      <c r="B677" s="9">
+        <v>43931</v>
+      </c>
+      <c r="C677" s="14">
+        <v>40</v>
+      </c>
+      <c r="D677" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E677" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F677" s="10">
+        <v>43921</v>
+      </c>
+      <c r="G677" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H677" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="678" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A678" s="14">
+        <v>676</v>
+      </c>
+      <c r="B678" s="9">
+        <v>43931</v>
+      </c>
+      <c r="C678" s="14">
+        <v>30</v>
+      </c>
+      <c r="D678" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E678" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F678" s="10">
+        <v>43920</v>
+      </c>
+      <c r="G678" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H678" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="679" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A679" s="14">
+        <v>677</v>
+      </c>
+      <c r="B679" s="9">
+        <v>43931</v>
+      </c>
+      <c r="C679" s="14">
+        <v>40</v>
+      </c>
+      <c r="D679" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E679" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F679" s="10">
+        <v>43924</v>
+      </c>
+      <c r="G679" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H679" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="680" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A680" s="14">
+        <v>678</v>
+      </c>
+      <c r="B680" s="9">
+        <v>43931</v>
+      </c>
+      <c r="C680" s="14">
+        <v>60</v>
+      </c>
+      <c r="D680" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E680" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F680" s="10">
+        <v>43930</v>
+      </c>
+      <c r="G680" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H680" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="681" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A681" s="14">
+        <v>679</v>
+      </c>
+      <c r="B681" s="9">
+        <v>43931</v>
+      </c>
+      <c r="C681" s="14">
+        <v>20</v>
+      </c>
+      <c r="D681" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E681" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F681" s="10">
+        <v>43927</v>
+      </c>
+      <c r="G681" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H681" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="682" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A682" s="14">
+        <v>680</v>
+      </c>
+      <c r="B682" s="9">
+        <v>43931</v>
+      </c>
+      <c r="C682" s="14">
+        <v>40</v>
+      </c>
+      <c r="D682" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E682" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F682" s="10">
+        <v>43922</v>
+      </c>
+      <c r="G682" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H682" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="683" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A683" s="14">
+        <v>681</v>
+      </c>
+      <c r="B683" s="9">
+        <v>43931</v>
+      </c>
+      <c r="C683" s="14">
+        <v>30</v>
+      </c>
+      <c r="D683" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E683" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F683" s="10">
+        <v>43921</v>
+      </c>
+      <c r="G683" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H683" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="684" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A684" s="14">
+        <v>682</v>
+      </c>
+      <c r="B684" s="9">
+        <v>43931</v>
+      </c>
+      <c r="C684" s="14">
+        <v>50</v>
+      </c>
+      <c r="D684" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E684" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F684" s="10">
+        <v>43927</v>
+      </c>
+      <c r="G684" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H684" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="685" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A685" s="14">
+        <v>683</v>
+      </c>
+      <c r="B685" s="9">
+        <v>43931</v>
+      </c>
+      <c r="C685" s="14">
+        <v>70</v>
+      </c>
+      <c r="D685" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E685" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F685" s="10">
+        <v>43922</v>
+      </c>
+      <c r="G685" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H685" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="686" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A686" s="14">
+        <v>684</v>
+      </c>
+      <c r="B686" s="9">
+        <v>43931</v>
+      </c>
+      <c r="C686" s="14">
+        <v>50</v>
+      </c>
+      <c r="D686" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E686" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F686" s="10">
+        <v>43925</v>
+      </c>
+      <c r="G686" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H686" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="687" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A687" s="14">
+        <v>685</v>
+      </c>
+      <c r="B687" s="9">
+        <v>43931</v>
+      </c>
+      <c r="C687" s="14">
+        <v>70</v>
+      </c>
+      <c r="D687" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E687" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F687" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G687" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H687" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="688" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A688" s="14">
+        <v>686</v>
+      </c>
+      <c r="B688" s="9">
+        <v>43931</v>
+      </c>
+      <c r="C688" s="14">
+        <v>40</v>
+      </c>
+      <c r="D688" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E688" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F688" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G688" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H688" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="689" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A689" s="14">
+        <v>687</v>
+      </c>
+      <c r="B689" s="9">
+        <v>43931</v>
+      </c>
+      <c r="C689" s="14">
+        <v>70</v>
+      </c>
+      <c r="D689" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E689" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F689" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G689" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H689" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="690" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A690" s="14">
+        <v>688</v>
+      </c>
+      <c r="B690" s="9">
+        <v>43931</v>
+      </c>
+      <c r="C690" s="14">
+        <v>80</v>
+      </c>
+      <c r="D690" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E690" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F690" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G690" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H690" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="691" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A691" s="14">
+        <v>689</v>
+      </c>
+      <c r="B691" s="9">
+        <v>43931</v>
+      </c>
+      <c r="C691" s="14">
+        <v>50</v>
+      </c>
+      <c r="D691" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E691" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F691" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G691" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H691" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="692" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A692" s="14">
+        <v>690</v>
+      </c>
+      <c r="B692" s="9">
+        <v>43931</v>
+      </c>
+      <c r="C692" s="14">
+        <v>30</v>
+      </c>
+      <c r="D692" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E692" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F692" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G692" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H692" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="693" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A693" s="14">
+        <v>691</v>
+      </c>
+      <c r="B693" s="9">
+        <v>43931</v>
+      </c>
+      <c r="C693" s="14">
+        <v>20</v>
+      </c>
+      <c r="D693" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E693" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F693" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G693" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H693" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="694" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A694" s="14">
+        <v>692</v>
+      </c>
+      <c r="B694" s="9">
+        <v>43931</v>
+      </c>
+      <c r="C694" s="14">
+        <v>40</v>
+      </c>
+      <c r="D694" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E694" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F694" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G694" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H694" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="695" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A695" s="14">
+        <v>693</v>
+      </c>
+      <c r="B695" s="9">
+        <v>43931</v>
+      </c>
+      <c r="C695" s="14">
+        <v>50</v>
+      </c>
+      <c r="D695" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E695" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F695" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G695" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H695" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="696" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A696" s="14">
+        <v>694</v>
+      </c>
+      <c r="B696" s="9">
+        <v>43931</v>
+      </c>
+      <c r="C696" s="14">
+        <v>50</v>
+      </c>
+      <c r="D696" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E696" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F696" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G696" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H696" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="697" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A697" s="14">
+        <v>695</v>
+      </c>
+      <c r="B697" s="9">
+        <v>43931</v>
+      </c>
+      <c r="C697" s="14">
+        <v>20</v>
+      </c>
+      <c r="D697" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E697" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F697" s="10">
+        <v>43925</v>
+      </c>
+      <c r="G697" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H697" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="698" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A698" s="14">
+        <v>696</v>
+      </c>
+      <c r="B698" s="9">
+        <v>43931</v>
+      </c>
+      <c r="C698" s="14">
+        <v>40</v>
+      </c>
+      <c r="D698" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E698" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F698" s="10">
+        <v>43922</v>
+      </c>
+      <c r="G698" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H698" s="14" t="s">
         <v>35</v>
       </c>
     </row>

--- a/data/covid19_Osaka.xlsx
+++ b/data/covid19_Osaka.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4391" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4705" uniqueCount="74">
   <si>
     <t>番号</t>
   </si>
@@ -206,11 +206,6 @@
     <t>河南町</t>
   </si>
   <si>
-    <t>大阪府における新型コロナウイルス感染症患者の発生状況
-（令和2年4月21日現在）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>70</t>
   </si>
   <si>
@@ -242,6 +237,17 @@
   </si>
   <si>
     <t>ー</t>
+  </si>
+  <si>
+    <t>大阪府における新型コロナウイルス感染症患者の発生状況
+（令和2年4月24日現在）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男</t>
+  </si>
+  <si>
+    <t>女</t>
   </si>
 </sst>
 </file>
@@ -711,7 +717,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1351"/>
+  <dimension ref="A1:H1448"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:G1"/>
@@ -728,7 +734,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="37.5" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -3931,7 +3937,7 @@
         <v>43906</v>
       </c>
       <c r="G140" s="5" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -4552,7 +4558,7 @@
         <v>43912</v>
       </c>
       <c r="G167" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -5104,7 +5110,7 @@
         <v>43914</v>
       </c>
       <c r="G191" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -5495,7 +5501,7 @@
         <v>43917</v>
       </c>
       <c r="G208" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -5955,7 +5961,7 @@
         <v>43912</v>
       </c>
       <c r="G228" s="5" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -6139,7 +6145,7 @@
         <v>43912</v>
       </c>
       <c r="G236" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="237" spans="1:7">
@@ -6185,7 +6191,7 @@
         <v>43916</v>
       </c>
       <c r="G238" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -6254,7 +6260,7 @@
         <v>43917</v>
       </c>
       <c r="G241" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="242" spans="1:7">
@@ -7519,7 +7525,7 @@
         <v>43923</v>
       </c>
       <c r="G296" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="297" spans="1:7">
@@ -8209,7 +8215,7 @@
         <v>43913</v>
       </c>
       <c r="G326" s="5" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="327" spans="1:7">
@@ -8715,7 +8721,7 @@
         <v>43918</v>
       </c>
       <c r="G348" s="5" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="349" spans="1:7">
@@ -8922,7 +8928,7 @@
         <v>43921</v>
       </c>
       <c r="G357" s="9" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="358" spans="1:7">
@@ -9106,7 +9112,7 @@
         <v>43924</v>
       </c>
       <c r="G365" s="9" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="366" spans="1:7">
@@ -9934,7 +9940,7 @@
         <v>43918</v>
       </c>
       <c r="G401" s="9" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="402" spans="1:7">
@@ -10878,7 +10884,7 @@
         <v>43921</v>
       </c>
       <c r="G442" s="9" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="443" spans="1:7">
@@ -13500,7 +13506,7 @@
         <v>43926</v>
       </c>
       <c r="G556" s="9" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="557" spans="1:7">
@@ -15133,7 +15139,7 @@
         <v>43925</v>
       </c>
       <c r="G627" s="9" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="628" spans="1:7">
@@ -15800,7 +15806,7 @@
         <v>43926</v>
       </c>
       <c r="G656" s="9" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="657" spans="1:7">
@@ -17939,7 +17945,7 @@
         <v>43930</v>
       </c>
       <c r="G749" s="9" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="750" spans="1:7">
@@ -20377,7 +20383,7 @@
         <v>43933</v>
       </c>
       <c r="G855" s="9" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="856" spans="1:7">
@@ -20860,7 +20866,7 @@
         <v>43931</v>
       </c>
       <c r="G876" s="9" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="877" spans="1:7">
@@ -20929,7 +20935,7 @@
         <v>56</v>
       </c>
       <c r="G879" s="9" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="880" spans="1:7">
@@ -21159,7 +21165,7 @@
         <v>35</v>
       </c>
       <c r="G889" s="9" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="890" spans="1:7">
@@ -25184,7 +25190,7 @@
         <v>43933</v>
       </c>
       <c r="G1064" s="9" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1065" spans="1:7">
@@ -27070,7 +27076,7 @@
         <v>35</v>
       </c>
       <c r="G1146" s="5" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1147" spans="1:7">
@@ -27518,7 +27524,7 @@
         <v>43940</v>
       </c>
       <c r="C1166" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D1166" s="3" t="s">
         <v>10</v>
@@ -27541,7 +27547,7 @@
         <v>43940</v>
       </c>
       <c r="C1167" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D1167" s="3" t="s">
         <v>10</v>
@@ -27564,7 +27570,7 @@
         <v>43940</v>
       </c>
       <c r="C1168" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D1168" s="3" t="s">
         <v>10</v>
@@ -27587,7 +27593,7 @@
         <v>43940</v>
       </c>
       <c r="C1169" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1169" s="3" t="s">
         <v>7</v>
@@ -27610,7 +27616,7 @@
         <v>43940</v>
       </c>
       <c r="C1170" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D1170" s="3" t="s">
         <v>7</v>
@@ -27633,7 +27639,7 @@
         <v>43940</v>
       </c>
       <c r="C1171" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D1171" s="3" t="s">
         <v>7</v>
@@ -27656,7 +27662,7 @@
         <v>43940</v>
       </c>
       <c r="C1172" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D1172" s="3" t="s">
         <v>10</v>
@@ -27679,7 +27685,7 @@
         <v>43940</v>
       </c>
       <c r="C1173" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1173" s="3" t="s">
         <v>10</v>
@@ -27702,7 +27708,7 @@
         <v>43940</v>
       </c>
       <c r="C1174" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D1174" s="3" t="s">
         <v>10</v>
@@ -27725,7 +27731,7 @@
         <v>43940</v>
       </c>
       <c r="C1175" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1175" s="3" t="s">
         <v>7</v>
@@ -27748,7 +27754,7 @@
         <v>43940</v>
       </c>
       <c r="C1176" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1176" s="3" t="s">
         <v>10</v>
@@ -27771,7 +27777,7 @@
         <v>43940</v>
       </c>
       <c r="C1177" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D1177" s="3" t="s">
         <v>10</v>
@@ -27794,7 +27800,7 @@
         <v>43940</v>
       </c>
       <c r="C1178" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1178" s="3" t="s">
         <v>7</v>
@@ -27840,7 +27846,7 @@
         <v>43940</v>
       </c>
       <c r="C1180" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D1180" s="3" t="s">
         <v>7</v>
@@ -27863,7 +27869,7 @@
         <v>43940</v>
       </c>
       <c r="C1181" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D1181" s="3" t="s">
         <v>7</v>
@@ -27886,7 +27892,7 @@
         <v>43940</v>
       </c>
       <c r="C1182" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1182" s="3" t="s">
         <v>7</v>
@@ -27909,7 +27915,7 @@
         <v>43940</v>
       </c>
       <c r="C1183" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1183" s="3" t="s">
         <v>10</v>
@@ -27932,7 +27938,7 @@
         <v>43940</v>
       </c>
       <c r="C1184" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1184" s="3" t="s">
         <v>7</v>
@@ -27955,7 +27961,7 @@
         <v>43940</v>
       </c>
       <c r="C1185" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1185" s="3" t="s">
         <v>7</v>
@@ -27978,7 +27984,7 @@
         <v>43940</v>
       </c>
       <c r="C1186" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D1186" s="3" t="s">
         <v>7</v>
@@ -28001,7 +28007,7 @@
         <v>43940</v>
       </c>
       <c r="C1187" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D1187" s="3" t="s">
         <v>7</v>
@@ -28024,7 +28030,7 @@
         <v>43940</v>
       </c>
       <c r="C1188" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D1188" s="3" t="s">
         <v>7</v>
@@ -28047,7 +28053,7 @@
         <v>43940</v>
       </c>
       <c r="C1189" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1189" s="3" t="s">
         <v>10</v>
@@ -28070,7 +28076,7 @@
         <v>43940</v>
       </c>
       <c r="C1190" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D1190" s="3" t="s">
         <v>7</v>
@@ -28093,7 +28099,7 @@
         <v>43940</v>
       </c>
       <c r="C1191" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D1191" s="3" t="s">
         <v>10</v>
@@ -28116,7 +28122,7 @@
         <v>43940</v>
       </c>
       <c r="C1192" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D1192" s="3" t="s">
         <v>7</v>
@@ -28139,7 +28145,7 @@
         <v>43940</v>
       </c>
       <c r="C1193" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D1193" s="3" t="s">
         <v>7</v>
@@ -28162,7 +28168,7 @@
         <v>43940</v>
       </c>
       <c r="C1194" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D1194" s="3" t="s">
         <v>7</v>
@@ -28185,7 +28191,7 @@
         <v>43940</v>
       </c>
       <c r="C1195" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1195" s="3" t="s">
         <v>7</v>
@@ -28208,7 +28214,7 @@
         <v>43940</v>
       </c>
       <c r="C1196" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1196" s="3" t="s">
         <v>7</v>
@@ -28231,7 +28237,7 @@
         <v>43940</v>
       </c>
       <c r="C1197" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D1197" s="3" t="s">
         <v>7</v>
@@ -28254,7 +28260,7 @@
         <v>43940</v>
       </c>
       <c r="C1198" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D1198" s="3" t="s">
         <v>7</v>
@@ -28277,7 +28283,7 @@
         <v>43940</v>
       </c>
       <c r="C1199" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D1199" s="3" t="s">
         <v>7</v>
@@ -28300,7 +28306,7 @@
         <v>43940</v>
       </c>
       <c r="C1200" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D1200" s="3" t="s">
         <v>7</v>
@@ -28323,7 +28329,7 @@
         <v>43940</v>
       </c>
       <c r="C1201" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D1201" s="3" t="s">
         <v>10</v>
@@ -28346,7 +28352,7 @@
         <v>43940</v>
       </c>
       <c r="C1202" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D1202" s="3" t="s">
         <v>10</v>
@@ -28369,7 +28375,7 @@
         <v>43940</v>
       </c>
       <c r="C1203" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1203" s="3" t="s">
         <v>10</v>
@@ -28392,7 +28398,7 @@
         <v>43940</v>
       </c>
       <c r="C1204" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D1204" s="3" t="s">
         <v>10</v>
@@ -28415,7 +28421,7 @@
         <v>43940</v>
       </c>
       <c r="C1205" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D1205" s="3" t="s">
         <v>10</v>
@@ -28438,7 +28444,7 @@
         <v>43940</v>
       </c>
       <c r="C1206" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D1206" s="3" t="s">
         <v>7</v>
@@ -28461,7 +28467,7 @@
         <v>43940</v>
       </c>
       <c r="C1207" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1207" s="3" t="s">
         <v>10</v>
@@ -28484,7 +28490,7 @@
         <v>43940</v>
       </c>
       <c r="C1208" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1208" s="3" t="s">
         <v>10</v>
@@ -28507,7 +28513,7 @@
         <v>43940</v>
       </c>
       <c r="C1209" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D1209" s="3" t="s">
         <v>10</v>
@@ -28530,7 +28536,7 @@
         <v>43940</v>
       </c>
       <c r="C1210" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D1210" s="3" t="s">
         <v>7</v>
@@ -28553,7 +28559,7 @@
         <v>43940</v>
       </c>
       <c r="C1211" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D1211" s="3" t="s">
         <v>7</v>
@@ -28576,7 +28582,7 @@
         <v>43940</v>
       </c>
       <c r="C1212" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D1212" s="3" t="s">
         <v>7</v>
@@ -28599,7 +28605,7 @@
         <v>43940</v>
       </c>
       <c r="C1213" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D1213" s="3" t="s">
         <v>7</v>
@@ -28726,7 +28732,7 @@
         <v>35</v>
       </c>
       <c r="G1218" s="5" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1219" spans="1:7">
@@ -29597,7 +29603,7 @@
         <v>8</v>
       </c>
       <c r="F1256" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G1256" s="5" t="s">
         <v>28</v>
@@ -29666,7 +29672,7 @@
         <v>18</v>
       </c>
       <c r="F1259" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G1259" s="5" t="s">
         <v>28</v>
@@ -30336,7 +30342,7 @@
         <v>43939</v>
       </c>
       <c r="G1288" s="5" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1289" spans="1:7">
@@ -31785,6 +31791,2237 @@
         <v>43920</v>
       </c>
       <c r="G1351" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:7">
+      <c r="A1352" s="5">
+        <v>1350</v>
+      </c>
+      <c r="B1352" s="6">
+        <v>43943</v>
+      </c>
+      <c r="C1352" s="5">
+        <v>30</v>
+      </c>
+      <c r="D1352" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1352" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1352" s="8">
+        <v>43937</v>
+      </c>
+      <c r="G1352" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:7">
+      <c r="A1353" s="5">
+        <v>1351</v>
+      </c>
+      <c r="B1353" s="6">
+        <v>43943</v>
+      </c>
+      <c r="C1353" s="5">
+        <v>30</v>
+      </c>
+      <c r="D1353" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1353" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1353" s="8">
+        <v>43936</v>
+      </c>
+      <c r="G1353" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:7">
+      <c r="A1354" s="5">
+        <v>1352</v>
+      </c>
+      <c r="B1354" s="6">
+        <v>43943</v>
+      </c>
+      <c r="C1354" s="5">
+        <v>50</v>
+      </c>
+      <c r="D1354" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1354" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1354" s="8">
+        <v>43940</v>
+      </c>
+      <c r="G1354" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:7">
+      <c r="A1355" s="5">
+        <v>1353</v>
+      </c>
+      <c r="B1355" s="6">
+        <v>43943</v>
+      </c>
+      <c r="C1355" s="5">
+        <v>20</v>
+      </c>
+      <c r="D1355" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1355" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1355" s="8">
+        <v>43939</v>
+      </c>
+      <c r="G1355" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:7">
+      <c r="A1356" s="5">
+        <v>1354</v>
+      </c>
+      <c r="B1356" s="6">
+        <v>43943</v>
+      </c>
+      <c r="C1356" s="5">
+        <v>60</v>
+      </c>
+      <c r="D1356" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1356" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1356" s="8">
+        <v>43934</v>
+      </c>
+      <c r="G1356" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:7">
+      <c r="A1357" s="5">
+        <v>1355</v>
+      </c>
+      <c r="B1357" s="6">
+        <v>43943</v>
+      </c>
+      <c r="C1357" s="5">
+        <v>50</v>
+      </c>
+      <c r="D1357" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1357" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1357" s="8">
+        <v>43935</v>
+      </c>
+      <c r="G1357" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:7">
+      <c r="A1358" s="5">
+        <v>1356</v>
+      </c>
+      <c r="B1358" s="6">
+        <v>43943</v>
+      </c>
+      <c r="C1358" s="5">
+        <v>20</v>
+      </c>
+      <c r="D1358" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1358" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1358" s="8">
+        <v>43934</v>
+      </c>
+      <c r="G1358" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:7">
+      <c r="A1359" s="5">
+        <v>1357</v>
+      </c>
+      <c r="B1359" s="6">
+        <v>43943</v>
+      </c>
+      <c r="C1359" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1359" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1359" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1359" s="8">
+        <v>43929</v>
+      </c>
+      <c r="G1359" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:7">
+      <c r="A1360" s="5">
+        <v>1358</v>
+      </c>
+      <c r="B1360" s="6">
+        <v>43943</v>
+      </c>
+      <c r="C1360" s="5">
+        <v>30</v>
+      </c>
+      <c r="D1360" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1360" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1360" s="8">
+        <v>43932</v>
+      </c>
+      <c r="G1360" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:7">
+      <c r="A1361" s="5">
+        <v>1359</v>
+      </c>
+      <c r="B1361" s="6">
+        <v>43943</v>
+      </c>
+      <c r="C1361" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1361" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1361" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1361" s="8">
+        <v>43928</v>
+      </c>
+      <c r="G1361" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:7">
+      <c r="A1362" s="5">
+        <v>1360</v>
+      </c>
+      <c r="B1362" s="6">
+        <v>43943</v>
+      </c>
+      <c r="C1362" s="5">
+        <v>70</v>
+      </c>
+      <c r="D1362" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1362" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1362" s="8">
+        <v>43934</v>
+      </c>
+      <c r="G1362" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:7">
+      <c r="A1363" s="5">
+        <v>1361</v>
+      </c>
+      <c r="B1363" s="6">
+        <v>43943</v>
+      </c>
+      <c r="C1363" s="5">
+        <v>20</v>
+      </c>
+      <c r="D1363" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1363" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1363" s="8">
+        <v>43927</v>
+      </c>
+      <c r="G1363" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:7">
+      <c r="A1364" s="5">
+        <v>1362</v>
+      </c>
+      <c r="B1364" s="6">
+        <v>43943</v>
+      </c>
+      <c r="C1364" s="5">
+        <v>50</v>
+      </c>
+      <c r="D1364" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1364" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1364" s="8">
+        <v>43937</v>
+      </c>
+      <c r="G1364" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:7">
+      <c r="A1365" s="5">
+        <v>1363</v>
+      </c>
+      <c r="B1365" s="6">
+        <v>43943</v>
+      </c>
+      <c r="C1365" s="5">
+        <v>70</v>
+      </c>
+      <c r="D1365" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1365" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1365" s="8">
+        <v>43941</v>
+      </c>
+      <c r="G1365" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:7">
+      <c r="A1366" s="5">
+        <v>1364</v>
+      </c>
+      <c r="B1366" s="6">
+        <v>43943</v>
+      </c>
+      <c r="C1366" s="5">
+        <v>30</v>
+      </c>
+      <c r="D1366" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1366" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1366" s="8">
+        <v>43934</v>
+      </c>
+      <c r="G1366" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:7">
+      <c r="A1367" s="5">
+        <v>1365</v>
+      </c>
+      <c r="B1367" s="6">
+        <v>43943</v>
+      </c>
+      <c r="C1367" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1367" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1367" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1367" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1367" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:7">
+      <c r="A1368" s="5">
+        <v>1366</v>
+      </c>
+      <c r="B1368" s="6">
+        <v>43943</v>
+      </c>
+      <c r="C1368" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1368" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1368" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1368" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1368" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:7">
+      <c r="A1369" s="5">
+        <v>1367</v>
+      </c>
+      <c r="B1369" s="6">
+        <v>43943</v>
+      </c>
+      <c r="C1369" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1369" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1369" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1369" s="8">
+        <v>43930</v>
+      </c>
+      <c r="G1369" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:7">
+      <c r="A1370" s="5">
+        <v>1368</v>
+      </c>
+      <c r="B1370" s="6">
+        <v>43943</v>
+      </c>
+      <c r="C1370" s="5">
+        <v>40</v>
+      </c>
+      <c r="D1370" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1370" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1370" s="8">
+        <v>43931</v>
+      </c>
+      <c r="G1370" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:7">
+      <c r="A1371" s="5">
+        <v>1369</v>
+      </c>
+      <c r="B1371" s="6">
+        <v>43943</v>
+      </c>
+      <c r="C1371" s="5">
+        <v>20</v>
+      </c>
+      <c r="D1371" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1371" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1371" s="8">
+        <v>43929</v>
+      </c>
+      <c r="G1371" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:7">
+      <c r="A1372" s="5">
+        <v>1370</v>
+      </c>
+      <c r="B1372" s="6">
+        <v>43943</v>
+      </c>
+      <c r="C1372" s="5">
+        <v>50</v>
+      </c>
+      <c r="D1372" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1372" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1372" s="8">
+        <v>43927</v>
+      </c>
+      <c r="G1372" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:7">
+      <c r="A1373" s="5">
+        <v>1371</v>
+      </c>
+      <c r="B1373" s="6">
+        <v>43943</v>
+      </c>
+      <c r="C1373" s="5">
+        <v>80</v>
+      </c>
+      <c r="D1373" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1373" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1373" s="8">
+        <v>43935</v>
+      </c>
+      <c r="G1373" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:7">
+      <c r="A1374" s="5">
+        <v>1372</v>
+      </c>
+      <c r="B1374" s="6">
+        <v>43943</v>
+      </c>
+      <c r="C1374" s="5">
+        <v>50</v>
+      </c>
+      <c r="D1374" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1374" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1374" s="8">
+        <v>43928</v>
+      </c>
+      <c r="G1374" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:7">
+      <c r="A1375" s="5">
+        <v>1373</v>
+      </c>
+      <c r="B1375" s="6">
+        <v>43943</v>
+      </c>
+      <c r="C1375" s="5">
+        <v>60</v>
+      </c>
+      <c r="D1375" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1375" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1375" s="8">
+        <v>43936</v>
+      </c>
+      <c r="G1375" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:7">
+      <c r="A1376" s="5">
+        <v>1374</v>
+      </c>
+      <c r="B1376" s="6">
+        <v>43943</v>
+      </c>
+      <c r="C1376" s="5">
+        <v>20</v>
+      </c>
+      <c r="D1376" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1376" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1376" s="8">
+        <v>43938</v>
+      </c>
+      <c r="G1376" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:7">
+      <c r="A1377" s="5">
+        <v>1375</v>
+      </c>
+      <c r="B1377" s="6">
+        <v>43943</v>
+      </c>
+      <c r="C1377" s="5">
+        <v>60</v>
+      </c>
+      <c r="D1377" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1377" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1377" s="8">
+        <v>43937</v>
+      </c>
+      <c r="G1377" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:7">
+      <c r="A1378" s="5">
+        <v>1376</v>
+      </c>
+      <c r="B1378" s="6">
+        <v>43943</v>
+      </c>
+      <c r="C1378" s="5">
+        <v>40</v>
+      </c>
+      <c r="D1378" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1378" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1378" s="8">
+        <v>43933</v>
+      </c>
+      <c r="G1378" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:7">
+      <c r="A1379" s="5">
+        <v>1377</v>
+      </c>
+      <c r="B1379" s="6">
+        <v>43943</v>
+      </c>
+      <c r="C1379" s="5">
+        <v>50</v>
+      </c>
+      <c r="D1379" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1379" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1379" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1379" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:7">
+      <c r="A1380" s="5">
+        <v>1378</v>
+      </c>
+      <c r="B1380" s="6">
+        <v>43943</v>
+      </c>
+      <c r="C1380" s="5">
+        <v>20</v>
+      </c>
+      <c r="D1380" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1380" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1380" s="8">
+        <v>43939</v>
+      </c>
+      <c r="G1380" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:7">
+      <c r="A1381" s="5">
+        <v>1379</v>
+      </c>
+      <c r="B1381" s="6">
+        <v>43943</v>
+      </c>
+      <c r="C1381" s="5">
+        <v>70</v>
+      </c>
+      <c r="D1381" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1381" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1381" s="8">
+        <v>43935</v>
+      </c>
+      <c r="G1381" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:7">
+      <c r="A1382" s="5">
+        <v>1380</v>
+      </c>
+      <c r="B1382" s="6">
+        <v>43943</v>
+      </c>
+      <c r="C1382" s="5">
+        <v>70</v>
+      </c>
+      <c r="D1382" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1382" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1382" s="8">
+        <v>43937</v>
+      </c>
+      <c r="G1382" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:7">
+      <c r="A1383" s="5">
+        <v>1381</v>
+      </c>
+      <c r="B1383" s="6">
+        <v>43944</v>
+      </c>
+      <c r="C1383" s="5">
+        <v>30</v>
+      </c>
+      <c r="D1383" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1383" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1383" s="8">
+        <v>43939</v>
+      </c>
+      <c r="G1383" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:7">
+      <c r="A1384" s="5">
+        <v>1382</v>
+      </c>
+      <c r="B1384" s="6">
+        <v>43944</v>
+      </c>
+      <c r="C1384" s="5">
+        <v>80</v>
+      </c>
+      <c r="D1384" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1384" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1384" s="8">
+        <v>43942</v>
+      </c>
+      <c r="G1384" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:7">
+      <c r="A1385" s="5">
+        <v>1383</v>
+      </c>
+      <c r="B1385" s="6">
+        <v>43944</v>
+      </c>
+      <c r="C1385" s="5">
+        <v>30</v>
+      </c>
+      <c r="D1385" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1385" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1385" s="8">
+        <v>43940</v>
+      </c>
+      <c r="G1385" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:7">
+      <c r="A1386" s="5">
+        <v>1384</v>
+      </c>
+      <c r="B1386" s="6">
+        <v>43944</v>
+      </c>
+      <c r="C1386" s="5">
+        <v>80</v>
+      </c>
+      <c r="D1386" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1386" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1386" s="8">
+        <v>43941</v>
+      </c>
+      <c r="G1386" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:7">
+      <c r="A1387" s="5">
+        <v>1385</v>
+      </c>
+      <c r="B1387" s="6">
+        <v>43944</v>
+      </c>
+      <c r="C1387" s="5">
+        <v>50</v>
+      </c>
+      <c r="D1387" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1387" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1387" s="8">
+        <v>43941</v>
+      </c>
+      <c r="G1387" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:7">
+      <c r="A1388" s="5">
+        <v>1386</v>
+      </c>
+      <c r="B1388" s="6">
+        <v>43944</v>
+      </c>
+      <c r="C1388" s="5">
+        <v>80</v>
+      </c>
+      <c r="D1388" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1388" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1388" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1388" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:7">
+      <c r="A1389" s="5">
+        <v>1387</v>
+      </c>
+      <c r="B1389" s="6">
+        <v>43944</v>
+      </c>
+      <c r="C1389" s="5">
+        <v>70</v>
+      </c>
+      <c r="D1389" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1389" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1389" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1389" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:7">
+      <c r="A1390" s="5">
+        <v>1388</v>
+      </c>
+      <c r="B1390" s="6">
+        <v>43944</v>
+      </c>
+      <c r="C1390" s="5">
+        <v>10</v>
+      </c>
+      <c r="D1390" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1390" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1390" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1390" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:7">
+      <c r="A1391" s="5">
+        <v>1389</v>
+      </c>
+      <c r="B1391" s="6">
+        <v>43944</v>
+      </c>
+      <c r="C1391" s="5">
+        <v>20</v>
+      </c>
+      <c r="D1391" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1391" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1391" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1391" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:7">
+      <c r="A1392" s="5">
+        <v>1390</v>
+      </c>
+      <c r="B1392" s="6">
+        <v>43944</v>
+      </c>
+      <c r="C1392" s="5">
+        <v>60</v>
+      </c>
+      <c r="D1392" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1392" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1392" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1392" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:7">
+      <c r="A1393" s="5">
+        <v>1391</v>
+      </c>
+      <c r="B1393" s="6">
+        <v>43944</v>
+      </c>
+      <c r="C1393" s="5">
+        <v>40</v>
+      </c>
+      <c r="D1393" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1393" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1393" s="8">
+        <v>43938</v>
+      </c>
+      <c r="G1393" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:7">
+      <c r="A1394" s="5">
+        <v>1392</v>
+      </c>
+      <c r="B1394" s="6">
+        <v>43944</v>
+      </c>
+      <c r="C1394" s="5">
+        <v>60</v>
+      </c>
+      <c r="D1394" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1394" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1394" s="8">
+        <v>43933</v>
+      </c>
+      <c r="G1394" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:7">
+      <c r="A1395" s="5">
+        <v>1393</v>
+      </c>
+      <c r="B1395" s="6">
+        <v>43944</v>
+      </c>
+      <c r="C1395" s="5">
+        <v>70</v>
+      </c>
+      <c r="D1395" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1395" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1395" s="8">
+        <v>43931</v>
+      </c>
+      <c r="G1395" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:7">
+      <c r="A1396" s="5">
+        <v>1394</v>
+      </c>
+      <c r="B1396" s="6">
+        <v>43944</v>
+      </c>
+      <c r="C1396" s="5">
+        <v>40</v>
+      </c>
+      <c r="D1396" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1396" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1396" s="8">
+        <v>43936</v>
+      </c>
+      <c r="G1396" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:7">
+      <c r="A1397" s="5">
+        <v>1395</v>
+      </c>
+      <c r="B1397" s="6">
+        <v>43944</v>
+      </c>
+      <c r="C1397" s="5">
+        <v>40</v>
+      </c>
+      <c r="D1397" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1397" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1397" s="8">
+        <v>43917</v>
+      </c>
+      <c r="G1397" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:7">
+      <c r="A1398" s="5">
+        <v>1396</v>
+      </c>
+      <c r="B1398" s="6">
+        <v>43944</v>
+      </c>
+      <c r="C1398" s="5">
+        <v>40</v>
+      </c>
+      <c r="D1398" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1398" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1398" s="8">
+        <v>43941</v>
+      </c>
+      <c r="G1398" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:7">
+      <c r="A1399" s="5">
+        <v>1397</v>
+      </c>
+      <c r="B1399" s="6">
+        <v>43944</v>
+      </c>
+      <c r="C1399" s="5">
+        <v>90</v>
+      </c>
+      <c r="D1399" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1399" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1399" s="8">
+        <v>43937</v>
+      </c>
+      <c r="G1399" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:7">
+      <c r="A1400" s="5">
+        <v>1398</v>
+      </c>
+      <c r="B1400" s="6">
+        <v>43944</v>
+      </c>
+      <c r="C1400" s="5">
+        <v>20</v>
+      </c>
+      <c r="D1400" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1400" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1400" s="8">
+        <v>43942</v>
+      </c>
+      <c r="G1400" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:7">
+      <c r="A1401" s="5">
+        <v>1399</v>
+      </c>
+      <c r="B1401" s="6">
+        <v>43944</v>
+      </c>
+      <c r="C1401" s="5">
+        <v>30</v>
+      </c>
+      <c r="D1401" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1401" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1401" s="8">
+        <v>43938</v>
+      </c>
+      <c r="G1401" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:7">
+      <c r="A1402" s="5">
+        <v>1400</v>
+      </c>
+      <c r="B1402" s="6">
+        <v>43944</v>
+      </c>
+      <c r="C1402" s="5">
+        <v>60</v>
+      </c>
+      <c r="D1402" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1402" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1402" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1402" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:7">
+      <c r="A1403" s="5">
+        <v>1401</v>
+      </c>
+      <c r="B1403" s="6">
+        <v>43944</v>
+      </c>
+      <c r="C1403" s="5">
+        <v>60</v>
+      </c>
+      <c r="D1403" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1403" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1403" s="8">
+        <v>43932</v>
+      </c>
+      <c r="G1403" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:7">
+      <c r="A1404" s="5">
+        <v>1402</v>
+      </c>
+      <c r="B1404" s="6">
+        <v>43944</v>
+      </c>
+      <c r="C1404" s="5">
+        <v>50</v>
+      </c>
+      <c r="D1404" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1404" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1404" s="8">
+        <v>43936</v>
+      </c>
+      <c r="G1404" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:7">
+      <c r="A1405" s="5">
+        <v>1403</v>
+      </c>
+      <c r="B1405" s="6">
+        <v>43944</v>
+      </c>
+      <c r="C1405" s="5">
+        <v>60</v>
+      </c>
+      <c r="D1405" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1405" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1405" s="8">
+        <v>43941</v>
+      </c>
+      <c r="G1405" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:7">
+      <c r="A1406" s="5">
+        <v>1404</v>
+      </c>
+      <c r="B1406" s="6">
+        <v>43944</v>
+      </c>
+      <c r="C1406" s="5">
+        <v>80</v>
+      </c>
+      <c r="D1406" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1406" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1406" s="8">
+        <v>43931</v>
+      </c>
+      <c r="G1406" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:7">
+      <c r="A1407" s="5">
+        <v>1405</v>
+      </c>
+      <c r="B1407" s="6">
+        <v>43944</v>
+      </c>
+      <c r="C1407" s="5">
+        <v>40</v>
+      </c>
+      <c r="D1407" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1407" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1407" s="8">
+        <v>43934</v>
+      </c>
+      <c r="G1407" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:7">
+      <c r="A1408" s="5">
+        <v>1406</v>
+      </c>
+      <c r="B1408" s="6">
+        <v>43944</v>
+      </c>
+      <c r="C1408" s="5">
+        <v>50</v>
+      </c>
+      <c r="D1408" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1408" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1408" s="8">
+        <v>43932</v>
+      </c>
+      <c r="G1408" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:7">
+      <c r="A1409" s="5">
+        <v>1407</v>
+      </c>
+      <c r="B1409" s="6">
+        <v>43944</v>
+      </c>
+      <c r="C1409" s="5">
+        <v>70</v>
+      </c>
+      <c r="D1409" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1409" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1409" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1409" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:7">
+      <c r="A1410" s="5">
+        <v>1408</v>
+      </c>
+      <c r="B1410" s="6">
+        <v>43944</v>
+      </c>
+      <c r="C1410" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1410" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1410" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1410" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1410" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:7">
+      <c r="A1411" s="5">
+        <v>1409</v>
+      </c>
+      <c r="B1411" s="6">
+        <v>43944</v>
+      </c>
+      <c r="C1411" s="5">
+        <v>20</v>
+      </c>
+      <c r="D1411" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1411" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1411" s="8">
+        <v>43927</v>
+      </c>
+      <c r="G1411" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:7">
+      <c r="A1412" s="5">
+        <v>1410</v>
+      </c>
+      <c r="B1412" s="6">
+        <v>43944</v>
+      </c>
+      <c r="C1412" s="5">
+        <v>50</v>
+      </c>
+      <c r="D1412" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1412" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1412" s="8">
+        <v>43941</v>
+      </c>
+      <c r="G1412" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:7">
+      <c r="A1413" s="5">
+        <v>1411</v>
+      </c>
+      <c r="B1413" s="6">
+        <v>43944</v>
+      </c>
+      <c r="C1413" s="5">
+        <v>90</v>
+      </c>
+      <c r="D1413" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1413" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1413" s="8">
+        <v>43935</v>
+      </c>
+      <c r="G1413" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:7">
+      <c r="A1414" s="5">
+        <v>1412</v>
+      </c>
+      <c r="B1414" s="6">
+        <v>43944</v>
+      </c>
+      <c r="C1414" s="5">
+        <v>60</v>
+      </c>
+      <c r="D1414" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1414" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1414" s="8">
+        <v>43940</v>
+      </c>
+      <c r="G1414" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:7">
+      <c r="A1415" s="5">
+        <v>1413</v>
+      </c>
+      <c r="B1415" s="6">
+        <v>43944</v>
+      </c>
+      <c r="C1415" s="5">
+        <v>70</v>
+      </c>
+      <c r="D1415" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1415" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1415" s="8">
+        <v>43930</v>
+      </c>
+      <c r="G1415" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:7">
+      <c r="A1416" s="5">
+        <v>1414</v>
+      </c>
+      <c r="B1416" s="6">
+        <v>43944</v>
+      </c>
+      <c r="C1416" s="5">
+        <v>70</v>
+      </c>
+      <c r="D1416" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1416" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1416" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1416" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:7">
+      <c r="A1417" s="5">
+        <v>1415</v>
+      </c>
+      <c r="B1417" s="6">
+        <v>43944</v>
+      </c>
+      <c r="C1417" s="5">
+        <v>40</v>
+      </c>
+      <c r="D1417" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1417" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1417" s="8">
+        <v>43941</v>
+      </c>
+      <c r="G1417" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:7">
+      <c r="A1418" s="5">
+        <v>1416</v>
+      </c>
+      <c r="B1418" s="6">
+        <v>43945</v>
+      </c>
+      <c r="C1418" s="5">
+        <v>50</v>
+      </c>
+      <c r="D1418" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1418" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1418" s="8">
+        <v>43931</v>
+      </c>
+      <c r="G1418" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:7">
+      <c r="A1419" s="5">
+        <v>1417</v>
+      </c>
+      <c r="B1419" s="6">
+        <v>43945</v>
+      </c>
+      <c r="C1419" s="5">
+        <v>50</v>
+      </c>
+      <c r="D1419" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1419" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1419" s="8">
+        <v>43938</v>
+      </c>
+      <c r="G1419" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:7">
+      <c r="A1420" s="5">
+        <v>1418</v>
+      </c>
+      <c r="B1420" s="6">
+        <v>43945</v>
+      </c>
+      <c r="C1420" s="5">
+        <v>50</v>
+      </c>
+      <c r="D1420" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1420" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1420" s="8">
+        <v>43938</v>
+      </c>
+      <c r="G1420" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:7">
+      <c r="A1421" s="5">
+        <v>1419</v>
+      </c>
+      <c r="B1421" s="6">
+        <v>43945</v>
+      </c>
+      <c r="C1421" s="5">
+        <v>50</v>
+      </c>
+      <c r="D1421" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1421" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1421" s="8">
+        <v>43932</v>
+      </c>
+      <c r="G1421" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:7">
+      <c r="A1422" s="5">
+        <v>1420</v>
+      </c>
+      <c r="B1422" s="6">
+        <v>43945</v>
+      </c>
+      <c r="C1422" s="5">
+        <v>20</v>
+      </c>
+      <c r="D1422" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1422" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1422" s="8">
+        <v>43942</v>
+      </c>
+      <c r="G1422" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:7">
+      <c r="A1423" s="5">
+        <v>1421</v>
+      </c>
+      <c r="B1423" s="6">
+        <v>43945</v>
+      </c>
+      <c r="C1423" s="5">
+        <v>50</v>
+      </c>
+      <c r="D1423" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1423" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1423" s="8">
+        <v>43933</v>
+      </c>
+      <c r="G1423" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:7">
+      <c r="A1424" s="5">
+        <v>1422</v>
+      </c>
+      <c r="B1424" s="6">
+        <v>43945</v>
+      </c>
+      <c r="C1424" s="5">
+        <v>80</v>
+      </c>
+      <c r="D1424" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1424" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1424" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1424" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:7">
+      <c r="A1425" s="5">
+        <v>1423</v>
+      </c>
+      <c r="B1425" s="6">
+        <v>43945</v>
+      </c>
+      <c r="C1425" s="5">
+        <v>30</v>
+      </c>
+      <c r="D1425" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1425" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1425" s="8">
+        <v>43934</v>
+      </c>
+      <c r="G1425" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:7">
+      <c r="A1426" s="5">
+        <v>1424</v>
+      </c>
+      <c r="B1426" s="6">
+        <v>43945</v>
+      </c>
+      <c r="C1426" s="5">
+        <v>40</v>
+      </c>
+      <c r="D1426" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1426" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1426" s="8">
+        <v>43940</v>
+      </c>
+      <c r="G1426" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:7">
+      <c r="A1427" s="5">
+        <v>1425</v>
+      </c>
+      <c r="B1427" s="6">
+        <v>43945</v>
+      </c>
+      <c r="C1427" s="5">
+        <v>80</v>
+      </c>
+      <c r="D1427" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1427" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1427" s="8">
+        <v>43939</v>
+      </c>
+      <c r="G1427" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:7">
+      <c r="A1428" s="5">
+        <v>1426</v>
+      </c>
+      <c r="B1428" s="6">
+        <v>43945</v>
+      </c>
+      <c r="C1428" s="5">
+        <v>60</v>
+      </c>
+      <c r="D1428" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1428" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1428" s="8">
+        <v>43937</v>
+      </c>
+      <c r="G1428" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:7">
+      <c r="A1429" s="5">
+        <v>1427</v>
+      </c>
+      <c r="B1429" s="6">
+        <v>43945</v>
+      </c>
+      <c r="C1429" s="5">
+        <v>40</v>
+      </c>
+      <c r="D1429" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1429" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1429" s="8">
+        <v>43939</v>
+      </c>
+      <c r="G1429" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:7">
+      <c r="A1430" s="5">
+        <v>1428</v>
+      </c>
+      <c r="B1430" s="6">
+        <v>43945</v>
+      </c>
+      <c r="C1430" s="5">
+        <v>40</v>
+      </c>
+      <c r="D1430" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1430" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1430" s="8">
+        <v>43934</v>
+      </c>
+      <c r="G1430" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:7">
+      <c r="A1431" s="5">
+        <v>1429</v>
+      </c>
+      <c r="B1431" s="6">
+        <v>43945</v>
+      </c>
+      <c r="C1431" s="5">
+        <v>50</v>
+      </c>
+      <c r="D1431" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1431" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1431" s="8">
+        <v>43942</v>
+      </c>
+      <c r="G1431" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:7">
+      <c r="A1432" s="5">
+        <v>1430</v>
+      </c>
+      <c r="B1432" s="6">
+        <v>43945</v>
+      </c>
+      <c r="C1432" s="5">
+        <v>30</v>
+      </c>
+      <c r="D1432" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1432" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1432" s="8">
+        <v>43936</v>
+      </c>
+      <c r="G1432" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:7">
+      <c r="A1433" s="5">
+        <v>1431</v>
+      </c>
+      <c r="B1433" s="6">
+        <v>43945</v>
+      </c>
+      <c r="C1433" s="5">
+        <v>30</v>
+      </c>
+      <c r="D1433" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1433" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1433" s="8">
+        <v>43937</v>
+      </c>
+      <c r="G1433" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:7">
+      <c r="A1434" s="5">
+        <v>1432</v>
+      </c>
+      <c r="B1434" s="6">
+        <v>43945</v>
+      </c>
+      <c r="C1434" s="5">
+        <v>90</v>
+      </c>
+      <c r="D1434" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1434" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1434" s="8">
+        <v>43943</v>
+      </c>
+      <c r="G1434" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:7">
+      <c r="A1435" s="5">
+        <v>1433</v>
+      </c>
+      <c r="B1435" s="6">
+        <v>43945</v>
+      </c>
+      <c r="C1435" s="5">
+        <v>100</v>
+      </c>
+      <c r="D1435" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1435" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1435" s="8">
+        <v>43939</v>
+      </c>
+      <c r="G1435" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:7">
+      <c r="A1436" s="5">
+        <v>1434</v>
+      </c>
+      <c r="B1436" s="6">
+        <v>43945</v>
+      </c>
+      <c r="C1436" s="5">
+        <v>60</v>
+      </c>
+      <c r="D1436" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1436" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1436" s="8">
+        <v>43939</v>
+      </c>
+      <c r="G1436" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:7">
+      <c r="A1437" s="5">
+        <v>1435</v>
+      </c>
+      <c r="B1437" s="6">
+        <v>43945</v>
+      </c>
+      <c r="C1437" s="5">
+        <v>40</v>
+      </c>
+      <c r="D1437" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1437" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1437" s="8">
+        <v>43930</v>
+      </c>
+      <c r="G1437" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:7">
+      <c r="A1438" s="5">
+        <v>1436</v>
+      </c>
+      <c r="B1438" s="6">
+        <v>43945</v>
+      </c>
+      <c r="C1438" s="5">
+        <v>20</v>
+      </c>
+      <c r="D1438" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1438" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1438" s="8">
+        <v>43934</v>
+      </c>
+      <c r="G1438" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:7">
+      <c r="A1439" s="5">
+        <v>1437</v>
+      </c>
+      <c r="B1439" s="6">
+        <v>43945</v>
+      </c>
+      <c r="C1439" s="5">
+        <v>60</v>
+      </c>
+      <c r="D1439" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1439" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1439" s="8">
+        <v>43937</v>
+      </c>
+      <c r="G1439" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:7">
+      <c r="A1440" s="5">
+        <v>1438</v>
+      </c>
+      <c r="B1440" s="6">
+        <v>43945</v>
+      </c>
+      <c r="C1440" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1440" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1440" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1440" s="8">
+        <v>43929</v>
+      </c>
+      <c r="G1440" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:7">
+      <c r="A1441" s="5">
+        <v>1439</v>
+      </c>
+      <c r="B1441" s="6">
+        <v>43945</v>
+      </c>
+      <c r="C1441" s="5">
+        <v>20</v>
+      </c>
+      <c r="D1441" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1441" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1441" s="8">
+        <v>43939</v>
+      </c>
+      <c r="G1441" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:7">
+      <c r="A1442" s="5">
+        <v>1440</v>
+      </c>
+      <c r="B1442" s="6">
+        <v>43945</v>
+      </c>
+      <c r="C1442" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1442" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1442" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1442" s="8">
+        <v>43942</v>
+      </c>
+      <c r="G1442" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:7">
+      <c r="A1443" s="5">
+        <v>1441</v>
+      </c>
+      <c r="B1443" s="6">
+        <v>43945</v>
+      </c>
+      <c r="C1443" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1443" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1443" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1443" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1443" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:7">
+      <c r="A1444" s="5">
+        <v>1442</v>
+      </c>
+      <c r="B1444" s="6">
+        <v>43945</v>
+      </c>
+      <c r="C1444" s="5">
+        <v>30</v>
+      </c>
+      <c r="D1444" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1444" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1444" s="8">
+        <v>43937</v>
+      </c>
+      <c r="G1444" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:7">
+      <c r="A1445" s="5">
+        <v>1443</v>
+      </c>
+      <c r="B1445" s="6">
+        <v>43945</v>
+      </c>
+      <c r="C1445" s="5">
+        <v>50</v>
+      </c>
+      <c r="D1445" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1445" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1445" s="8">
+        <v>43942</v>
+      </c>
+      <c r="G1445" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:7">
+      <c r="A1446" s="5">
+        <v>1444</v>
+      </c>
+      <c r="B1446" s="6">
+        <v>43945</v>
+      </c>
+      <c r="C1446" s="5">
+        <v>40</v>
+      </c>
+      <c r="D1446" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1446" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1446" s="8">
+        <v>43943</v>
+      </c>
+      <c r="G1446" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:7">
+      <c r="A1447" s="5">
+        <v>1445</v>
+      </c>
+      <c r="B1447" s="6">
+        <v>43945</v>
+      </c>
+      <c r="C1447" s="5">
+        <v>50</v>
+      </c>
+      <c r="D1447" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1447" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1447" s="8">
+        <v>43932</v>
+      </c>
+      <c r="G1447" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:7">
+      <c r="A1448" s="5">
+        <v>1446</v>
+      </c>
+      <c r="B1448" s="6">
+        <v>43945</v>
+      </c>
+      <c r="C1448" s="5">
+        <v>40</v>
+      </c>
+      <c r="D1448" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1448" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1448" s="8">
+        <v>43929</v>
+      </c>
+      <c r="G1448" s="5" t="s">
         <v>11</v>
       </c>
     </row>

--- a/data/covid19_Osaka.xlsx
+++ b/data/covid19_Osaka.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4705" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5185" uniqueCount="72">
   <si>
     <t>番号</t>
   </si>
@@ -240,14 +240,8 @@
   </si>
   <si>
     <t>大阪府における新型コロナウイルス感染症患者の発生状況
-（令和2年4月24日現在）</t>
+（令和2年4月29日現在）</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男</t>
-  </si>
-  <si>
-    <t>女</t>
   </si>
 </sst>
 </file>
@@ -257,7 +251,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -308,6 +302,13 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="3">
@@ -385,7 +386,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -426,6 +427,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -717,7 +727,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1448"/>
+  <dimension ref="A1:H1599"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:G1"/>
@@ -726,9 +736,10 @@
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="8.125" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1936,7 +1947,7 @@
         <v>43891</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1959,7 +1970,7 @@
         <v>9</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2649,7 +2660,7 @@
         <v>43896</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2695,7 +2706,7 @@
         <v>43895</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2902,7 +2913,7 @@
         <v>43901</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -3316,7 +3327,7 @@
         <v>35</v>
       </c>
       <c r="G113" s="5" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3477,7 +3488,7 @@
         <v>43898</v>
       </c>
       <c r="G120" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3523,7 +3534,7 @@
         <v>43895</v>
       </c>
       <c r="G122" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3546,7 +3557,7 @@
         <v>43899</v>
       </c>
       <c r="G123" s="5" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3661,7 +3672,7 @@
         <v>43906</v>
       </c>
       <c r="G128" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -3799,7 +3810,7 @@
         <v>43911</v>
       </c>
       <c r="G134" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -3891,7 +3902,7 @@
         <v>43910</v>
       </c>
       <c r="G138" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -3960,7 +3971,7 @@
         <v>43904</v>
       </c>
       <c r="G141" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -4075,7 +4086,7 @@
         <v>43912</v>
       </c>
       <c r="G146" s="5" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -4443,7 +4454,7 @@
         <v>43910</v>
       </c>
       <c r="G162" s="5" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -4489,7 +4500,7 @@
         <v>43914</v>
       </c>
       <c r="G164" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -4696,7 +4707,7 @@
         <v>43913</v>
       </c>
       <c r="G173" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="174" spans="1:7" ht="30">
@@ -4834,7 +4845,7 @@
         <v>43910</v>
       </c>
       <c r="G179" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -4857,7 +4868,7 @@
         <v>43912</v>
       </c>
       <c r="G180" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -4880,7 +4891,7 @@
         <v>43913</v>
       </c>
       <c r="G181" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -4903,7 +4914,7 @@
         <v>43914</v>
       </c>
       <c r="G182" s="5" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -5018,7 +5029,7 @@
         <v>43912</v>
       </c>
       <c r="G187" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -5225,7 +5236,7 @@
         <v>43904</v>
       </c>
       <c r="G196" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -5248,7 +5259,7 @@
         <v>43916</v>
       </c>
       <c r="G197" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -5271,7 +5282,7 @@
         <v>43913</v>
       </c>
       <c r="G198" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -5294,7 +5305,7 @@
         <v>43917</v>
       </c>
       <c r="G199" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -5340,7 +5351,7 @@
         <v>43912</v>
       </c>
       <c r="G201" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -5409,7 +5420,7 @@
         <v>43917</v>
       </c>
       <c r="G204" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -5616,7 +5627,7 @@
         <v>43917</v>
       </c>
       <c r="G213" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -5639,7 +5650,7 @@
         <v>43917</v>
       </c>
       <c r="G214" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -5892,7 +5903,7 @@
         <v>43911</v>
       </c>
       <c r="G225" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -6076,7 +6087,7 @@
         <v>35</v>
       </c>
       <c r="G233" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -6122,7 +6133,7 @@
         <v>43906</v>
       </c>
       <c r="G235" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -6168,7 +6179,7 @@
         <v>43916</v>
       </c>
       <c r="G237" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="238" spans="1:7">
@@ -6283,7 +6294,7 @@
         <v>43916</v>
       </c>
       <c r="G242" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="243" spans="1:7">
@@ -6467,7 +6478,7 @@
         <v>43919</v>
       </c>
       <c r="G250" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="251" spans="1:7">
@@ -6927,7 +6938,7 @@
         <v>35</v>
       </c>
       <c r="G270" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="271" spans="1:7">
@@ -6996,7 +7007,7 @@
         <v>43919</v>
       </c>
       <c r="G273" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="274" spans="1:7">
@@ -7226,7 +7237,7 @@
         <v>43920</v>
       </c>
       <c r="G283" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="284" spans="1:7">
@@ -7295,7 +7306,7 @@
         <v>43918</v>
       </c>
       <c r="G286" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="287" spans="1:7">
@@ -7341,7 +7352,7 @@
         <v>43913</v>
       </c>
       <c r="G288" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="289" spans="1:7">
@@ -7410,7 +7421,7 @@
         <v>43914</v>
       </c>
       <c r="G291" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="292" spans="1:7">
@@ -7502,7 +7513,7 @@
         <v>43918</v>
       </c>
       <c r="G295" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="296" spans="1:7">
@@ -7663,7 +7674,7 @@
         <v>43919</v>
       </c>
       <c r="G302" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="303" spans="1:7">
@@ -7732,7 +7743,7 @@
         <v>43916</v>
       </c>
       <c r="G305" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="306" spans="1:7">
@@ -7755,7 +7766,7 @@
         <v>43921</v>
       </c>
       <c r="G306" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="307" spans="1:7">
@@ -7847,7 +7858,7 @@
         <v>43911</v>
       </c>
       <c r="G310" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="311" spans="1:7">
@@ -7916,7 +7927,7 @@
         <v>43918</v>
       </c>
       <c r="G313" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="314" spans="1:7">
@@ -7939,7 +7950,7 @@
         <v>43913</v>
       </c>
       <c r="G314" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="315" spans="1:7">
@@ -7962,7 +7973,7 @@
         <v>43915</v>
       </c>
       <c r="G315" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="316" spans="1:7">
@@ -7985,7 +7996,7 @@
         <v>43917</v>
       </c>
       <c r="G316" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="317" spans="1:7">
@@ -8008,7 +8019,7 @@
         <v>43915</v>
       </c>
       <c r="G317" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="318" spans="1:7">
@@ -8031,7 +8042,7 @@
         <v>43915</v>
       </c>
       <c r="G318" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="319" spans="1:7">
@@ -8100,7 +8111,7 @@
         <v>43918</v>
       </c>
       <c r="G321" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="322" spans="1:7">
@@ -8123,7 +8134,7 @@
         <v>43914</v>
       </c>
       <c r="G322" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="323" spans="1:7">
@@ -8146,7 +8157,7 @@
         <v>43920</v>
       </c>
       <c r="G323" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="324" spans="1:7">
@@ -8169,7 +8180,7 @@
         <v>35</v>
       </c>
       <c r="G324" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="325" spans="1:7">
@@ -8192,7 +8203,7 @@
         <v>43919</v>
       </c>
       <c r="G325" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="326" spans="1:7">
@@ -8215,7 +8226,7 @@
         <v>43913</v>
       </c>
       <c r="G326" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="327" spans="1:7">
@@ -8238,7 +8249,7 @@
         <v>43917</v>
       </c>
       <c r="G327" s="5" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="328" spans="1:7">
@@ -8261,7 +8272,7 @@
         <v>35</v>
       </c>
       <c r="G328" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="329" spans="1:7">
@@ -8284,7 +8295,7 @@
         <v>43914</v>
       </c>
       <c r="G329" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="330" spans="1:7">
@@ -8307,7 +8318,7 @@
         <v>43913</v>
       </c>
       <c r="G330" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="331" spans="1:7">
@@ -8330,7 +8341,7 @@
         <v>43919</v>
       </c>
       <c r="G331" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="332" spans="1:7">
@@ -8376,7 +8387,7 @@
         <v>43920</v>
       </c>
       <c r="G333" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="334" spans="1:7">
@@ -8629,7 +8640,7 @@
         <v>43919</v>
       </c>
       <c r="G344" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="345" spans="1:7">
@@ -8652,7 +8663,7 @@
         <v>43918</v>
       </c>
       <c r="G345" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="346" spans="1:7">
@@ -8698,7 +8709,7 @@
         <v>43911</v>
       </c>
       <c r="G347" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="348" spans="1:7">
@@ -8721,7 +8732,7 @@
         <v>43918</v>
       </c>
       <c r="G348" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="349" spans="1:7">
@@ -8767,7 +8778,7 @@
         <v>43921</v>
       </c>
       <c r="G350" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="351" spans="1:7">
@@ -8790,7 +8801,7 @@
         <v>43916</v>
       </c>
       <c r="G351" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="352" spans="1:7">
@@ -8813,7 +8824,7 @@
         <v>43918</v>
       </c>
       <c r="G352" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="353" spans="1:7">
@@ -8836,7 +8847,7 @@
         <v>43912</v>
       </c>
       <c r="G353" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="354" spans="1:7">
@@ -8859,7 +8870,7 @@
         <v>43916</v>
       </c>
       <c r="G354" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="355" spans="1:7">
@@ -8882,7 +8893,7 @@
         <v>43917</v>
       </c>
       <c r="G355" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="356" spans="1:7">
@@ -9020,7 +9031,7 @@
         <v>35</v>
       </c>
       <c r="G361" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="362" spans="1:7">
@@ -9089,7 +9100,7 @@
         <v>43922</v>
       </c>
       <c r="G364" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="365" spans="1:7">
@@ -9135,7 +9146,7 @@
         <v>43908</v>
       </c>
       <c r="G366" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="367" spans="1:7">
@@ -9158,7 +9169,7 @@
         <v>43920</v>
       </c>
       <c r="G367" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="368" spans="1:7">
@@ -9181,7 +9192,7 @@
         <v>43920</v>
       </c>
       <c r="G368" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="369" spans="1:7">
@@ -9204,7 +9215,7 @@
         <v>43915</v>
       </c>
       <c r="G369" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="370" spans="1:7">
@@ -9687,7 +9698,7 @@
         <v>43917</v>
       </c>
       <c r="G390" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="391" spans="1:7">
@@ -9733,7 +9744,7 @@
         <v>43916</v>
       </c>
       <c r="G392" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="393" spans="1:7">
@@ -9802,7 +9813,7 @@
         <v>43924</v>
       </c>
       <c r="G395" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="396" spans="1:7">
@@ -9825,7 +9836,7 @@
         <v>43915</v>
       </c>
       <c r="G396" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="397" spans="1:7">
@@ -9894,7 +9905,7 @@
         <v>35</v>
       </c>
       <c r="G399" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="400" spans="1:7">
@@ -10009,7 +10020,7 @@
         <v>35</v>
       </c>
       <c r="G404" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="405" spans="1:7">
@@ -10032,7 +10043,7 @@
         <v>35</v>
       </c>
       <c r="G405" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="406" spans="1:7">
@@ -10078,7 +10089,7 @@
         <v>35</v>
       </c>
       <c r="G407" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="408" spans="1:7">
@@ -10101,7 +10112,7 @@
         <v>43920</v>
       </c>
       <c r="G408" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="409" spans="1:7">
@@ -10147,7 +10158,7 @@
         <v>43921</v>
       </c>
       <c r="G410" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="411" spans="1:7">
@@ -10193,7 +10204,7 @@
         <v>43917</v>
       </c>
       <c r="G412" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="413" spans="1:7">
@@ -10239,7 +10250,7 @@
         <v>43917</v>
       </c>
       <c r="G414" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="415" spans="1:7">
@@ -10285,7 +10296,7 @@
         <v>43922</v>
       </c>
       <c r="G416" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -10492,7 +10503,7 @@
         <v>43919</v>
       </c>
       <c r="G425" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -10561,7 +10572,7 @@
         <v>43920</v>
       </c>
       <c r="G428" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -10677,7 +10688,7 @@
         <v>43920</v>
       </c>
       <c r="G433" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="434" spans="1:7">
@@ -10723,7 +10734,7 @@
         <v>43916</v>
       </c>
       <c r="G435" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="436" spans="1:7">
@@ -10769,7 +10780,7 @@
         <v>43921</v>
       </c>
       <c r="G437" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="438" spans="1:7">
@@ -10861,7 +10872,7 @@
         <v>43916</v>
       </c>
       <c r="G441" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="442" spans="1:7">
@@ -10930,7 +10941,7 @@
         <v>43916</v>
       </c>
       <c r="G444" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="445" spans="1:7">
@@ -10976,7 +10987,7 @@
         <v>43922</v>
       </c>
       <c r="G446" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="447" spans="1:7">
@@ -10999,7 +11010,7 @@
         <v>43910</v>
       </c>
       <c r="G447" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="448" spans="1:7">
@@ -11137,7 +11148,7 @@
         <v>35</v>
       </c>
       <c r="G453" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="454" spans="1:7">
@@ -11183,7 +11194,7 @@
         <v>43923</v>
       </c>
       <c r="G455" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="456" spans="1:7">
@@ -11436,7 +11447,7 @@
         <v>43922</v>
       </c>
       <c r="G466" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="467" spans="1:7">
@@ -11459,7 +11470,7 @@
         <v>43922</v>
       </c>
       <c r="G467" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="468" spans="1:7">
@@ -11574,7 +11585,7 @@
         <v>43923</v>
       </c>
       <c r="G472" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="473" spans="1:7">
@@ -11735,7 +11746,7 @@
         <v>43923</v>
       </c>
       <c r="G479" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="480" spans="1:7">
@@ -11804,7 +11815,7 @@
         <v>43924</v>
       </c>
       <c r="G482" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="483" spans="1:7">
@@ -11827,7 +11838,7 @@
         <v>43891</v>
       </c>
       <c r="G483" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="484" spans="1:7">
@@ -11942,7 +11953,7 @@
         <v>43920</v>
       </c>
       <c r="G488" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="489" spans="1:7">
@@ -12011,7 +12022,7 @@
         <v>43924</v>
       </c>
       <c r="G491" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="492" spans="1:7">
@@ -12126,7 +12137,7 @@
         <v>43924</v>
       </c>
       <c r="G496" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="497" spans="1:7">
@@ -12149,7 +12160,7 @@
         <v>43923</v>
       </c>
       <c r="G497" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="498" spans="1:7">
@@ -12563,7 +12574,7 @@
         <v>43921</v>
       </c>
       <c r="G515" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="516" spans="1:7">
@@ -12609,7 +12620,7 @@
         <v>43922</v>
       </c>
       <c r="G517" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="518" spans="1:7">
@@ -12747,7 +12758,7 @@
         <v>43920</v>
       </c>
       <c r="G523" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="524" spans="1:7">
@@ -12793,7 +12804,7 @@
         <v>43927</v>
       </c>
       <c r="G525" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="526" spans="1:7">
@@ -12839,7 +12850,7 @@
         <v>43929</v>
       </c>
       <c r="G527" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="528" spans="1:7">
@@ -13046,7 +13057,7 @@
         <v>43925</v>
       </c>
       <c r="G536" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="537" spans="1:7">
@@ -13138,7 +13149,7 @@
         <v>43921</v>
       </c>
       <c r="G540" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="541" spans="1:7">
@@ -13161,7 +13172,7 @@
         <v>43920</v>
       </c>
       <c r="G541" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="542" spans="1:7">
@@ -13276,7 +13287,7 @@
         <v>43924</v>
       </c>
       <c r="G546" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="547" spans="1:7">
@@ -13690,7 +13701,7 @@
         <v>43922</v>
       </c>
       <c r="G564" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="565" spans="1:7">
@@ -13713,7 +13724,7 @@
         <v>43925</v>
       </c>
       <c r="G565" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="566" spans="1:7">
@@ -13736,7 +13747,7 @@
         <v>43928</v>
       </c>
       <c r="G566" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="567" spans="1:7">
@@ -13759,7 +13770,7 @@
         <v>43926</v>
       </c>
       <c r="G567" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="568" spans="1:7">
@@ -13874,7 +13885,7 @@
         <v>43927</v>
       </c>
       <c r="G572" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="573" spans="1:7">
@@ -13943,7 +13954,7 @@
         <v>43926</v>
       </c>
       <c r="G575" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="576" spans="1:7">
@@ -13966,7 +13977,7 @@
         <v>43926</v>
       </c>
       <c r="G576" s="9" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="577" spans="1:7">
@@ -14265,7 +14276,7 @@
         <v>43924</v>
       </c>
       <c r="G589" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="590" spans="1:7">
@@ -14725,7 +14736,7 @@
         <v>43924</v>
       </c>
       <c r="G609" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="610" spans="1:7">
@@ -14748,7 +14759,7 @@
         <v>43923</v>
       </c>
       <c r="G610" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="611" spans="1:7">
@@ -14863,7 +14874,7 @@
         <v>43925</v>
       </c>
       <c r="G615" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="616" spans="1:7">
@@ -14932,7 +14943,7 @@
         <v>43929</v>
       </c>
       <c r="G618" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="619" spans="1:7">
@@ -15047,7 +15058,7 @@
         <v>43925</v>
       </c>
       <c r="G623" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="624" spans="1:7">
@@ -15093,7 +15104,7 @@
         <v>43922</v>
       </c>
       <c r="G625" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="626" spans="1:7">
@@ -15231,7 +15242,7 @@
         <v>43927</v>
       </c>
       <c r="G631" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="632" spans="1:7">
@@ -15622,7 +15633,7 @@
         <v>43925</v>
       </c>
       <c r="G648" s="9" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="649" spans="1:7">
@@ -16335,7 +16346,7 @@
         <v>43924</v>
       </c>
       <c r="G679" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="680" spans="1:7">
@@ -16427,7 +16438,7 @@
         <v>43921</v>
       </c>
       <c r="G683" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="684" spans="1:7">
@@ -16588,7 +16599,7 @@
         <v>35</v>
       </c>
       <c r="G690" s="9" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
     </row>
     <row r="691" spans="1:7">
@@ -17025,7 +17036,7 @@
         <v>43923</v>
       </c>
       <c r="G709" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="710" spans="1:7">
@@ -17071,7 +17082,7 @@
         <v>43916</v>
       </c>
       <c r="G711" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="712" spans="1:7">
@@ -17140,7 +17151,7 @@
         <v>43924</v>
       </c>
       <c r="G714" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="715" spans="1:7">
@@ -17232,7 +17243,7 @@
         <v>43924</v>
       </c>
       <c r="G718" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="719" spans="1:7">
@@ -18175,7 +18186,7 @@
         <v>43928</v>
       </c>
       <c r="G759" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="760" spans="1:7">
@@ -18313,7 +18324,7 @@
         <v>35</v>
       </c>
       <c r="G765" s="9" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
     </row>
     <row r="766" spans="1:7">
@@ -18405,7 +18416,7 @@
         <v>43919</v>
       </c>
       <c r="G769" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="770" spans="1:7">
@@ -18428,7 +18439,7 @@
         <v>43927</v>
       </c>
       <c r="G770" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="771" spans="1:7">
@@ -19532,7 +19543,7 @@
         <v>43932</v>
       </c>
       <c r="G818" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="819" spans="1:7">
@@ -19762,7 +19773,7 @@
         <v>43925</v>
       </c>
       <c r="G828" s="9" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="829" spans="1:7">
@@ -19900,7 +19911,7 @@
         <v>43931</v>
       </c>
       <c r="G834" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="835" spans="1:7">
@@ -20935,7 +20946,7 @@
         <v>56</v>
       </c>
       <c r="G879" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="880" spans="1:7">
@@ -21004,7 +21015,7 @@
         <v>43930</v>
       </c>
       <c r="G882" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="883" spans="1:7">
@@ -21280,7 +21291,7 @@
         <v>43920</v>
       </c>
       <c r="G894" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="895" spans="1:7">
@@ -21579,7 +21590,7 @@
         <v>43932</v>
       </c>
       <c r="G907" s="9" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="908" spans="1:7">
@@ -21625,7 +21636,7 @@
         <v>43929</v>
       </c>
       <c r="G909" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="910" spans="1:7">
@@ -22085,7 +22096,7 @@
         <v>43930</v>
       </c>
       <c r="G929" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="930" spans="1:7">
@@ -22453,7 +22464,7 @@
         <v>43931</v>
       </c>
       <c r="G945" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="946" spans="1:7">
@@ -22591,7 +22602,7 @@
         <v>43930</v>
       </c>
       <c r="G951" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="952" spans="1:7">
@@ -22752,7 +22763,7 @@
         <v>43927</v>
       </c>
       <c r="G958" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="959" spans="1:7">
@@ -22775,7 +22786,7 @@
         <v>43931</v>
       </c>
       <c r="G959" s="9" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="960" spans="1:7">
@@ -22982,7 +22993,7 @@
         <v>35</v>
       </c>
       <c r="G968" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="969" spans="1:7">
@@ -23212,7 +23223,7 @@
         <v>43928</v>
       </c>
       <c r="G978" s="9" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="979" spans="1:7">
@@ -23258,7 +23269,7 @@
         <v>43928</v>
       </c>
       <c r="G980" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="981" spans="1:7">
@@ -23281,7 +23292,7 @@
         <v>43929</v>
       </c>
       <c r="G981" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="982" spans="1:7">
@@ -23534,7 +23545,7 @@
         <v>43936</v>
       </c>
       <c r="G992" s="9" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="993" spans="1:7">
@@ -23879,7 +23890,7 @@
         <v>43929</v>
       </c>
       <c r="G1007" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1008" spans="1:7">
@@ -23948,7 +23959,7 @@
         <v>43928</v>
       </c>
       <c r="G1010" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1011" spans="1:7">
@@ -25374,7 +25385,7 @@
         <v>43931</v>
       </c>
       <c r="G1072" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1073" spans="1:7">
@@ -25650,7 +25661,7 @@
         <v>43937</v>
       </c>
       <c r="G1084" s="5" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1085" spans="1:7">
@@ -26777,7 +26788,7 @@
         <v>35</v>
       </c>
       <c r="G1133" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1134" spans="1:7">
@@ -26800,7 +26811,7 @@
         <v>35</v>
       </c>
       <c r="G1134" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1135" spans="1:7">
@@ -26984,7 +26995,7 @@
         <v>35</v>
       </c>
       <c r="G1142" s="5" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1143" spans="1:7">
@@ -27214,7 +27225,7 @@
         <v>35</v>
       </c>
       <c r="G1152" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1153" spans="1:7">
@@ -27789,7 +27800,7 @@
         <v>35</v>
       </c>
       <c r="G1177" s="5" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1178" spans="1:7">
@@ -28433,7 +28444,7 @@
         <v>43934</v>
       </c>
       <c r="G1205" s="5" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="1206" spans="1:7">
@@ -31805,7 +31816,7 @@
         <v>30</v>
       </c>
       <c r="D1352" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="E1352" s="5" t="s">
         <v>33</v>
@@ -31828,7 +31839,7 @@
         <v>30</v>
       </c>
       <c r="D1353" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="E1353" s="5" t="s">
         <v>13</v>
@@ -31851,7 +31862,7 @@
         <v>50</v>
       </c>
       <c r="D1354" s="5" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="E1354" s="5" t="s">
         <v>36</v>
@@ -31874,7 +31885,7 @@
         <v>20</v>
       </c>
       <c r="D1355" s="5" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="E1355" s="5" t="s">
         <v>35</v>
@@ -31897,7 +31908,7 @@
         <v>60</v>
       </c>
       <c r="D1356" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="E1356" s="5" t="s">
         <v>17</v>
@@ -31920,7 +31931,7 @@
         <v>50</v>
       </c>
       <c r="D1357" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="E1357" s="5" t="s">
         <v>26</v>
@@ -31943,7 +31954,7 @@
         <v>20</v>
       </c>
       <c r="D1358" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="E1358" s="5" t="s">
         <v>8</v>
@@ -31966,7 +31977,7 @@
         <v>12</v>
       </c>
       <c r="D1359" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="E1359" s="5" t="s">
         <v>8</v>
@@ -31989,7 +32000,7 @@
         <v>30</v>
       </c>
       <c r="D1360" s="5" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="E1360" s="5" t="s">
         <v>8</v>
@@ -32012,7 +32023,7 @@
         <v>12</v>
       </c>
       <c r="D1361" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="E1361" s="5" t="s">
         <v>8</v>
@@ -32035,7 +32046,7 @@
         <v>70</v>
       </c>
       <c r="D1362" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="E1362" s="5" t="s">
         <v>8</v>
@@ -32058,7 +32069,7 @@
         <v>20</v>
       </c>
       <c r="D1363" s="5" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="E1363" s="5" t="s">
         <v>8</v>
@@ -32081,9 +32092,9 @@
         <v>50</v>
       </c>
       <c r="D1364" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E1364" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1364" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F1364" s="8">
@@ -32104,7 +32115,7 @@
         <v>70</v>
       </c>
       <c r="D1365" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="E1365" s="5" t="s">
         <v>8</v>
@@ -32127,7 +32138,7 @@
         <v>30</v>
       </c>
       <c r="D1366" s="5" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="E1366" s="5" t="s">
         <v>8</v>
@@ -32150,7 +32161,7 @@
         <v>12</v>
       </c>
       <c r="D1367" s="5" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="E1367" s="5" t="s">
         <v>8</v>
@@ -32173,7 +32184,7 @@
         <v>12</v>
       </c>
       <c r="D1368" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="E1368" s="5" t="s">
         <v>8</v>
@@ -32196,7 +32207,7 @@
         <v>12</v>
       </c>
       <c r="D1369" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="E1369" s="5" t="s">
         <v>8</v>
@@ -32219,7 +32230,7 @@
         <v>40</v>
       </c>
       <c r="D1370" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="E1370" s="5" t="s">
         <v>8</v>
@@ -32242,7 +32253,7 @@
         <v>20</v>
       </c>
       <c r="D1371" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="E1371" s="5" t="s">
         <v>8</v>
@@ -32265,7 +32276,7 @@
         <v>50</v>
       </c>
       <c r="D1372" s="5" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="E1372" s="5" t="s">
         <v>8</v>
@@ -32288,7 +32299,7 @@
         <v>80</v>
       </c>
       <c r="D1373" s="5" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="E1373" s="5" t="s">
         <v>8</v>
@@ -32311,7 +32322,7 @@
         <v>50</v>
       </c>
       <c r="D1374" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="E1374" s="5" t="s">
         <v>32</v>
@@ -32334,7 +32345,7 @@
         <v>60</v>
       </c>
       <c r="D1375" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="E1375" s="5" t="s">
         <v>43</v>
@@ -32357,7 +32368,7 @@
         <v>20</v>
       </c>
       <c r="D1376" s="5" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="E1376" s="5" t="s">
         <v>24</v>
@@ -32380,7 +32391,7 @@
         <v>60</v>
       </c>
       <c r="D1377" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="E1377" s="5" t="s">
         <v>24</v>
@@ -32403,7 +32414,7 @@
         <v>40</v>
       </c>
       <c r="D1378" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="E1378" s="5" t="s">
         <v>16</v>
@@ -32426,7 +32437,7 @@
         <v>50</v>
       </c>
       <c r="D1379" s="5" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="E1379" s="5" t="s">
         <v>8</v>
@@ -32449,7 +32460,7 @@
         <v>20</v>
       </c>
       <c r="D1380" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="E1380" s="5" t="s">
         <v>21</v>
@@ -32472,7 +32483,7 @@
         <v>70</v>
       </c>
       <c r="D1381" s="5" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="E1381" s="5" t="s">
         <v>8</v>
@@ -32495,7 +32506,7 @@
         <v>70</v>
       </c>
       <c r="D1382" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="E1382" s="5" t="s">
         <v>26</v>
@@ -33323,7 +33334,7 @@
         <v>50</v>
       </c>
       <c r="D1418" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="E1418" s="5" t="s">
         <v>22</v>
@@ -33332,7 +33343,7 @@
         <v>43931</v>
       </c>
       <c r="G1418" s="5" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1419" spans="1:7">
@@ -33346,7 +33357,7 @@
         <v>50</v>
       </c>
       <c r="D1419" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="E1419" s="5" t="s">
         <v>47</v>
@@ -33369,7 +33380,7 @@
         <v>50</v>
       </c>
       <c r="D1420" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="E1420" s="5" t="s">
         <v>13</v>
@@ -33392,7 +33403,7 @@
         <v>50</v>
       </c>
       <c r="D1421" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="E1421" s="5" t="s">
         <v>13</v>
@@ -33415,7 +33426,7 @@
         <v>20</v>
       </c>
       <c r="D1422" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="E1422" s="5" t="s">
         <v>17</v>
@@ -33438,7 +33449,7 @@
         <v>50</v>
       </c>
       <c r="D1423" s="5" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="E1423" s="5" t="s">
         <v>38</v>
@@ -33461,7 +33472,7 @@
         <v>80</v>
       </c>
       <c r="D1424" s="5" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="E1424" s="5" t="s">
         <v>8</v>
@@ -33484,7 +33495,7 @@
         <v>30</v>
       </c>
       <c r="D1425" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="E1425" s="5" t="s">
         <v>8</v>
@@ -33507,7 +33518,7 @@
         <v>40</v>
       </c>
       <c r="D1426" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="E1426" s="5" t="s">
         <v>8</v>
@@ -33530,7 +33541,7 @@
         <v>80</v>
       </c>
       <c r="D1427" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="E1427" s="5" t="s">
         <v>8</v>
@@ -33553,7 +33564,7 @@
         <v>60</v>
       </c>
       <c r="D1428" s="5" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="E1428" s="5" t="s">
         <v>26</v>
@@ -33576,7 +33587,7 @@
         <v>40</v>
       </c>
       <c r="D1429" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="E1429" s="5" t="s">
         <v>20</v>
@@ -33599,7 +33610,7 @@
         <v>40</v>
       </c>
       <c r="D1430" s="5" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="E1430" s="5" t="s">
         <v>20</v>
@@ -33622,7 +33633,7 @@
         <v>50</v>
       </c>
       <c r="D1431" s="5" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="E1431" s="5" t="s">
         <v>16</v>
@@ -33645,7 +33656,7 @@
         <v>30</v>
       </c>
       <c r="D1432" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="E1432" s="5" t="s">
         <v>13</v>
@@ -33668,7 +33679,7 @@
         <v>30</v>
       </c>
       <c r="D1433" s="5" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="E1433" s="5" t="s">
         <v>35</v>
@@ -33691,7 +33702,7 @@
         <v>90</v>
       </c>
       <c r="D1434" s="5" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="E1434" s="5" t="s">
         <v>35</v>
@@ -33714,7 +33725,7 @@
         <v>100</v>
       </c>
       <c r="D1435" s="5" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="E1435" s="5" t="s">
         <v>35</v>
@@ -33737,7 +33748,7 @@
         <v>60</v>
       </c>
       <c r="D1436" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="E1436" s="5" t="s">
         <v>8</v>
@@ -33760,7 +33771,7 @@
         <v>40</v>
       </c>
       <c r="D1437" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="E1437" s="5" t="s">
         <v>8</v>
@@ -33783,7 +33794,7 @@
         <v>20</v>
       </c>
       <c r="D1438" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="E1438" s="5" t="s">
         <v>8</v>
@@ -33806,7 +33817,7 @@
         <v>60</v>
       </c>
       <c r="D1439" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="E1439" s="5" t="s">
         <v>8</v>
@@ -33829,7 +33840,7 @@
         <v>42</v>
       </c>
       <c r="D1440" s="5" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="E1440" s="5" t="s">
         <v>8</v>
@@ -33852,7 +33863,7 @@
         <v>20</v>
       </c>
       <c r="D1441" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="E1441" s="5" t="s">
         <v>8</v>
@@ -33875,7 +33886,7 @@
         <v>12</v>
       </c>
       <c r="D1442" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="E1442" s="5" t="s">
         <v>8</v>
@@ -33898,7 +33909,7 @@
         <v>12</v>
       </c>
       <c r="D1443" s="5" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="E1443" s="5" t="s">
         <v>8</v>
@@ -33921,7 +33932,7 @@
         <v>30</v>
       </c>
       <c r="D1444" s="5" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="E1444" s="5" t="s">
         <v>8</v>
@@ -33944,7 +33955,7 @@
         <v>50</v>
       </c>
       <c r="D1445" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="E1445" s="5" t="s">
         <v>8</v>
@@ -33967,7 +33978,7 @@
         <v>40</v>
       </c>
       <c r="D1446" s="5" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="E1446" s="5" t="s">
         <v>8</v>
@@ -33990,7 +34001,7 @@
         <v>50</v>
       </c>
       <c r="D1447" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="E1447" s="5" t="s">
         <v>8</v>
@@ -34013,7 +34024,7 @@
         <v>40</v>
       </c>
       <c r="D1448" s="5" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="E1448" s="5" t="s">
         <v>8</v>
@@ -34022,6 +34033,3479 @@
         <v>43929</v>
       </c>
       <c r="G1448" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:7">
+      <c r="A1449" s="5">
+        <v>1447</v>
+      </c>
+      <c r="B1449" s="6">
+        <v>43946</v>
+      </c>
+      <c r="C1449" s="5">
+        <v>30</v>
+      </c>
+      <c r="D1449" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1449" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1449" s="8">
+        <v>43938</v>
+      </c>
+      <c r="G1449" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:7">
+      <c r="A1450" s="5">
+        <v>1448</v>
+      </c>
+      <c r="B1450" s="6">
+        <v>43946</v>
+      </c>
+      <c r="C1450" s="5">
+        <v>90</v>
+      </c>
+      <c r="D1450" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1450" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1450" s="8">
+        <v>43943</v>
+      </c>
+      <c r="G1450" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:7">
+      <c r="A1451" s="5">
+        <v>1449</v>
+      </c>
+      <c r="B1451" s="6">
+        <v>43946</v>
+      </c>
+      <c r="C1451" s="5">
+        <v>90</v>
+      </c>
+      <c r="D1451" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1451" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1451" s="8">
+        <v>43939</v>
+      </c>
+      <c r="G1451" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:7">
+      <c r="A1452" s="5">
+        <v>1450</v>
+      </c>
+      <c r="B1452" s="6">
+        <v>43946</v>
+      </c>
+      <c r="C1452" s="5">
+        <v>60</v>
+      </c>
+      <c r="D1452" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1452" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1452" s="8">
+        <v>43943</v>
+      </c>
+      <c r="G1452" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:7">
+      <c r="A1453" s="5">
+        <v>1451</v>
+      </c>
+      <c r="B1453" s="6">
+        <v>43946</v>
+      </c>
+      <c r="C1453" s="5">
+        <v>70</v>
+      </c>
+      <c r="D1453" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1453" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1453" s="8">
+        <v>43938</v>
+      </c>
+      <c r="G1453" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:7">
+      <c r="A1454" s="5">
+        <v>1452</v>
+      </c>
+      <c r="B1454" s="6">
+        <v>43946</v>
+      </c>
+      <c r="C1454" s="5">
+        <v>90</v>
+      </c>
+      <c r="D1454" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1454" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1454" s="8">
+        <v>43941</v>
+      </c>
+      <c r="G1454" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:7">
+      <c r="A1455" s="5">
+        <v>1453</v>
+      </c>
+      <c r="B1455" s="6">
+        <v>43946</v>
+      </c>
+      <c r="C1455" s="5">
+        <v>40</v>
+      </c>
+      <c r="D1455" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1455" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1455" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1455" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:7">
+      <c r="A1456" s="5">
+        <v>1454</v>
+      </c>
+      <c r="B1456" s="6">
+        <v>43946</v>
+      </c>
+      <c r="C1456" s="5">
+        <v>60</v>
+      </c>
+      <c r="D1456" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1456" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1456" s="8">
+        <v>43935</v>
+      </c>
+      <c r="G1456" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:7">
+      <c r="A1457" s="5">
+        <v>1455</v>
+      </c>
+      <c r="B1457" s="6">
+        <v>43946</v>
+      </c>
+      <c r="C1457" s="5">
+        <v>70</v>
+      </c>
+      <c r="D1457" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1457" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1457" s="8">
+        <v>43939</v>
+      </c>
+      <c r="G1457" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:7">
+      <c r="A1458" s="5">
+        <v>1456</v>
+      </c>
+      <c r="B1458" s="6">
+        <v>43946</v>
+      </c>
+      <c r="C1458" s="5">
+        <v>50</v>
+      </c>
+      <c r="D1458" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1458" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1458" s="8">
+        <v>43937</v>
+      </c>
+      <c r="G1458" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:7">
+      <c r="A1459" s="5">
+        <v>1457</v>
+      </c>
+      <c r="B1459" s="6">
+        <v>43946</v>
+      </c>
+      <c r="C1459" s="5">
+        <v>30</v>
+      </c>
+      <c r="D1459" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1459" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1459" s="8">
+        <v>43941</v>
+      </c>
+      <c r="G1459" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:7">
+      <c r="A1460" s="5">
+        <v>1458</v>
+      </c>
+      <c r="B1460" s="6">
+        <v>43946</v>
+      </c>
+      <c r="C1460" s="5">
+        <v>50</v>
+      </c>
+      <c r="D1460" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1460" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1460" s="8">
+        <v>43935</v>
+      </c>
+      <c r="G1460" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:7">
+      <c r="A1461" s="5">
+        <v>1459</v>
+      </c>
+      <c r="B1461" s="6">
+        <v>43946</v>
+      </c>
+      <c r="C1461" s="5">
+        <v>20</v>
+      </c>
+      <c r="D1461" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1461" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1461" s="8">
+        <v>43930</v>
+      </c>
+      <c r="G1461" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:7">
+      <c r="A1462" s="5">
+        <v>1460</v>
+      </c>
+      <c r="B1462" s="6">
+        <v>43946</v>
+      </c>
+      <c r="C1462" s="5">
+        <v>20</v>
+      </c>
+      <c r="D1462" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1462" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1462" s="8">
+        <v>43931</v>
+      </c>
+      <c r="G1462" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:7">
+      <c r="A1463" s="5">
+        <v>1461</v>
+      </c>
+      <c r="B1463" s="6">
+        <v>43946</v>
+      </c>
+      <c r="C1463" s="5">
+        <v>50</v>
+      </c>
+      <c r="D1463" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1463" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1463" s="8">
+        <v>43933</v>
+      </c>
+      <c r="G1463" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:7">
+      <c r="A1464" s="5">
+        <v>1462</v>
+      </c>
+      <c r="B1464" s="6">
+        <v>43946</v>
+      </c>
+      <c r="C1464" s="5">
+        <v>40</v>
+      </c>
+      <c r="D1464" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1464" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1464" s="8">
+        <v>43941</v>
+      </c>
+      <c r="G1464" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:7">
+      <c r="A1465" s="5">
+        <v>1463</v>
+      </c>
+      <c r="B1465" s="6">
+        <v>43946</v>
+      </c>
+      <c r="C1465" s="5">
+        <v>40</v>
+      </c>
+      <c r="D1465" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1465" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1465" s="8">
+        <v>43918</v>
+      </c>
+      <c r="G1465" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:7">
+      <c r="A1466" s="5">
+        <v>1464</v>
+      </c>
+      <c r="B1466" s="6">
+        <v>43946</v>
+      </c>
+      <c r="C1466" s="5">
+        <v>40</v>
+      </c>
+      <c r="D1466" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1466" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1466" s="8">
+        <v>43938</v>
+      </c>
+      <c r="G1466" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:7">
+      <c r="A1467" s="5">
+        <v>1465</v>
+      </c>
+      <c r="B1467" s="6">
+        <v>43946</v>
+      </c>
+      <c r="C1467" s="5">
+        <v>30</v>
+      </c>
+      <c r="D1467" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1467" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1467" s="8">
+        <v>43942</v>
+      </c>
+      <c r="G1467" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:7">
+      <c r="A1468" s="5">
+        <v>1466</v>
+      </c>
+      <c r="B1468" s="6">
+        <v>43946</v>
+      </c>
+      <c r="C1468" s="5">
+        <v>30</v>
+      </c>
+      <c r="D1468" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1468" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1468" s="8">
+        <v>43940</v>
+      </c>
+      <c r="G1468" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:7">
+      <c r="A1469" s="5">
+        <v>1467</v>
+      </c>
+      <c r="B1469" s="6">
+        <v>43946</v>
+      </c>
+      <c r="C1469" s="5">
+        <v>30</v>
+      </c>
+      <c r="D1469" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1469" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1469" s="8">
+        <v>43930</v>
+      </c>
+      <c r="G1469" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:7">
+      <c r="A1470" s="5">
+        <v>1468</v>
+      </c>
+      <c r="B1470" s="6">
+        <v>43946</v>
+      </c>
+      <c r="C1470" s="5">
+        <v>20</v>
+      </c>
+      <c r="D1470" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1470" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1470" s="8">
+        <v>43937</v>
+      </c>
+      <c r="G1470" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:7">
+      <c r="A1471" s="5">
+        <v>1469</v>
+      </c>
+      <c r="B1471" s="6">
+        <v>43946</v>
+      </c>
+      <c r="C1471" s="5">
+        <v>10</v>
+      </c>
+      <c r="D1471" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1471" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1471" s="8">
+        <v>43943</v>
+      </c>
+      <c r="G1471" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:7">
+      <c r="A1472" s="5">
+        <v>1470</v>
+      </c>
+      <c r="B1472" s="6">
+        <v>43946</v>
+      </c>
+      <c r="C1472" s="5">
+        <v>40</v>
+      </c>
+      <c r="D1472" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1472" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1472" s="8">
+        <v>43929</v>
+      </c>
+      <c r="G1472" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:7">
+      <c r="A1473" s="5">
+        <v>1471</v>
+      </c>
+      <c r="B1473" s="6">
+        <v>43946</v>
+      </c>
+      <c r="C1473" s="5">
+        <v>60</v>
+      </c>
+      <c r="D1473" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1473" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1473" s="8">
+        <v>43937</v>
+      </c>
+      <c r="G1473" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:7">
+      <c r="A1474" s="5">
+        <v>1472</v>
+      </c>
+      <c r="B1474" s="6">
+        <v>43946</v>
+      </c>
+      <c r="C1474" s="5">
+        <v>60</v>
+      </c>
+      <c r="D1474" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1474" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1474" s="8">
+        <v>43931</v>
+      </c>
+      <c r="G1474" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:7">
+      <c r="A1475" s="5">
+        <v>1473</v>
+      </c>
+      <c r="B1475" s="6">
+        <v>43946</v>
+      </c>
+      <c r="C1475" s="5">
+        <v>60</v>
+      </c>
+      <c r="D1475" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1475" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1475" s="8">
+        <v>43940</v>
+      </c>
+      <c r="G1475" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:7">
+      <c r="A1476" s="5">
+        <v>1474</v>
+      </c>
+      <c r="B1476" s="6">
+        <v>43946</v>
+      </c>
+      <c r="C1476" s="5">
+        <v>70</v>
+      </c>
+      <c r="D1476" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1476" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1476" s="8">
+        <v>43944</v>
+      </c>
+      <c r="G1476" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:7">
+      <c r="A1477" s="5">
+        <v>1475</v>
+      </c>
+      <c r="B1477" s="6">
+        <v>43946</v>
+      </c>
+      <c r="C1477" s="5">
+        <v>50</v>
+      </c>
+      <c r="D1477" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1477" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1477" s="8">
+        <v>43938</v>
+      </c>
+      <c r="G1477" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:7">
+      <c r="A1478" s="5">
+        <v>1476</v>
+      </c>
+      <c r="B1478" s="6">
+        <v>43947</v>
+      </c>
+      <c r="C1478" s="5">
+        <v>20</v>
+      </c>
+      <c r="D1478" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1478" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1478" s="8">
+        <v>43940</v>
+      </c>
+      <c r="G1478" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:7">
+      <c r="A1479" s="5">
+        <v>1477</v>
+      </c>
+      <c r="B1479" s="6">
+        <v>43947</v>
+      </c>
+      <c r="C1479" s="5">
+        <v>70</v>
+      </c>
+      <c r="D1479" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1479" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1479" s="8">
+        <v>43936</v>
+      </c>
+      <c r="G1479" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:7">
+      <c r="A1480" s="5">
+        <v>1478</v>
+      </c>
+      <c r="B1480" s="6">
+        <v>43947</v>
+      </c>
+      <c r="C1480" s="5">
+        <v>50</v>
+      </c>
+      <c r="D1480" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1480" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1480" s="8">
+        <v>43934</v>
+      </c>
+      <c r="G1480" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:7">
+      <c r="A1481" s="5">
+        <v>1479</v>
+      </c>
+      <c r="B1481" s="6">
+        <v>43947</v>
+      </c>
+      <c r="C1481" s="5">
+        <v>70</v>
+      </c>
+      <c r="D1481" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1481" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1481" s="8">
+        <v>43944</v>
+      </c>
+      <c r="G1481" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:7">
+      <c r="A1482" s="5">
+        <v>1480</v>
+      </c>
+      <c r="B1482" s="6">
+        <v>43947</v>
+      </c>
+      <c r="C1482" s="5">
+        <v>20</v>
+      </c>
+      <c r="D1482" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1482" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1482" s="8">
+        <v>43944</v>
+      </c>
+      <c r="G1482" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:7">
+      <c r="A1483" s="5">
+        <v>1481</v>
+      </c>
+      <c r="B1483" s="6">
+        <v>43947</v>
+      </c>
+      <c r="C1483" s="5">
+        <v>90</v>
+      </c>
+      <c r="D1483" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1483" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1483" s="8">
+        <v>43942</v>
+      </c>
+      <c r="G1483" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:7">
+      <c r="A1484" s="5">
+        <v>1482</v>
+      </c>
+      <c r="B1484" s="6">
+        <v>43947</v>
+      </c>
+      <c r="C1484" s="5">
+        <v>80</v>
+      </c>
+      <c r="D1484" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1484" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1484" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1484" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:7">
+      <c r="A1485" s="5">
+        <v>1483</v>
+      </c>
+      <c r="B1485" s="6">
+        <v>43947</v>
+      </c>
+      <c r="C1485" s="5">
+        <v>50</v>
+      </c>
+      <c r="D1485" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1485" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1485" s="8">
+        <v>43937</v>
+      </c>
+      <c r="G1485" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:7">
+      <c r="A1486" s="5">
+        <v>1484</v>
+      </c>
+      <c r="B1486" s="6">
+        <v>43947</v>
+      </c>
+      <c r="C1486" s="5">
+        <v>20</v>
+      </c>
+      <c r="D1486" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1486" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1486" s="8">
+        <v>43943</v>
+      </c>
+      <c r="G1486" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:7">
+      <c r="A1487" s="5">
+        <v>1485</v>
+      </c>
+      <c r="B1487" s="6">
+        <v>43947</v>
+      </c>
+      <c r="C1487" s="5">
+        <v>60</v>
+      </c>
+      <c r="D1487" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1487" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1487" s="8">
+        <v>43937</v>
+      </c>
+      <c r="G1487" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:7">
+      <c r="A1488" s="5">
+        <v>1486</v>
+      </c>
+      <c r="B1488" s="6">
+        <v>43947</v>
+      </c>
+      <c r="C1488" s="5">
+        <v>80</v>
+      </c>
+      <c r="D1488" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1488" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1488" s="8">
+        <v>43936</v>
+      </c>
+      <c r="G1488" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:7">
+      <c r="A1489" s="5">
+        <v>1487</v>
+      </c>
+      <c r="B1489" s="6">
+        <v>43947</v>
+      </c>
+      <c r="C1489" s="5">
+        <v>50</v>
+      </c>
+      <c r="D1489" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1489" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1489" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1489" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:7">
+      <c r="A1490" s="5">
+        <v>1488</v>
+      </c>
+      <c r="B1490" s="6">
+        <v>43947</v>
+      </c>
+      <c r="C1490" s="5">
+        <v>50</v>
+      </c>
+      <c r="D1490" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1490" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1490" s="8">
+        <v>43931</v>
+      </c>
+      <c r="G1490" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:7">
+      <c r="A1491" s="5">
+        <v>1489</v>
+      </c>
+      <c r="B1491" s="6">
+        <v>43947</v>
+      </c>
+      <c r="C1491" s="5">
+        <v>70</v>
+      </c>
+      <c r="D1491" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1491" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1491" s="8">
+        <v>43939</v>
+      </c>
+      <c r="G1491" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:7">
+      <c r="A1492" s="5">
+        <v>1490</v>
+      </c>
+      <c r="B1492" s="6">
+        <v>43947</v>
+      </c>
+      <c r="C1492" s="5">
+        <v>40</v>
+      </c>
+      <c r="D1492" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1492" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1492" s="8">
+        <v>43941</v>
+      </c>
+      <c r="G1492" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:7">
+      <c r="A1493" s="5">
+        <v>1491</v>
+      </c>
+      <c r="B1493" s="6">
+        <v>43947</v>
+      </c>
+      <c r="C1493" s="5">
+        <v>30</v>
+      </c>
+      <c r="D1493" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1493" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1493" s="8">
+        <v>43941</v>
+      </c>
+      <c r="G1493" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:7">
+      <c r="A1494" s="14">
+        <v>1492</v>
+      </c>
+      <c r="B1494" s="15">
+        <v>43948</v>
+      </c>
+      <c r="C1494" s="14">
+        <v>30</v>
+      </c>
+      <c r="D1494" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1494" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1494" s="16">
+        <v>43941</v>
+      </c>
+      <c r="G1494" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:7">
+      <c r="A1495" s="14">
+        <v>1493</v>
+      </c>
+      <c r="B1495" s="15">
+        <v>43948</v>
+      </c>
+      <c r="C1495" s="14">
+        <v>50</v>
+      </c>
+      <c r="D1495" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1495" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1495" s="16">
+        <v>43933</v>
+      </c>
+      <c r="G1495" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:7">
+      <c r="A1496" s="14">
+        <v>1494</v>
+      </c>
+      <c r="B1496" s="15">
+        <v>43948</v>
+      </c>
+      <c r="C1496" s="14">
+        <v>40</v>
+      </c>
+      <c r="D1496" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1496" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1496" s="16">
+        <v>43940</v>
+      </c>
+      <c r="G1496" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:7">
+      <c r="A1497" s="14">
+        <v>1495</v>
+      </c>
+      <c r="B1497" s="15">
+        <v>43948</v>
+      </c>
+      <c r="C1497" s="14">
+        <v>30</v>
+      </c>
+      <c r="D1497" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1497" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1497" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1497" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:7">
+      <c r="A1498" s="14">
+        <v>1496</v>
+      </c>
+      <c r="B1498" s="15">
+        <v>43948</v>
+      </c>
+      <c r="C1498" s="14">
+        <v>40</v>
+      </c>
+      <c r="D1498" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1498" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1498" s="16">
+        <v>43937</v>
+      </c>
+      <c r="G1498" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:7">
+      <c r="A1499" s="14">
+        <v>1497</v>
+      </c>
+      <c r="B1499" s="15">
+        <v>43948</v>
+      </c>
+      <c r="C1499" s="14">
+        <v>80</v>
+      </c>
+      <c r="D1499" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1499" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1499" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1499" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:7">
+      <c r="A1500" s="14">
+        <v>1498</v>
+      </c>
+      <c r="B1500" s="15">
+        <v>43948</v>
+      </c>
+      <c r="C1500" s="14">
+        <v>30</v>
+      </c>
+      <c r="D1500" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1500" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1500" s="16">
+        <v>43942</v>
+      </c>
+      <c r="G1500" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:7">
+      <c r="A1501" s="14">
+        <v>1499</v>
+      </c>
+      <c r="B1501" s="15">
+        <v>43948</v>
+      </c>
+      <c r="C1501" s="14">
+        <v>30</v>
+      </c>
+      <c r="D1501" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1501" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1501" s="16">
+        <v>43935</v>
+      </c>
+      <c r="G1501" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:7">
+      <c r="A1502" s="14">
+        <v>1500</v>
+      </c>
+      <c r="B1502" s="15">
+        <v>43948</v>
+      </c>
+      <c r="C1502" s="14">
+        <v>70</v>
+      </c>
+      <c r="D1502" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1502" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1502" s="16">
+        <v>43945</v>
+      </c>
+      <c r="G1502" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:7">
+      <c r="A1503" s="14">
+        <v>1501</v>
+      </c>
+      <c r="B1503" s="15">
+        <v>43948</v>
+      </c>
+      <c r="C1503" s="14">
+        <v>50</v>
+      </c>
+      <c r="D1503" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1503" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1503" s="16">
+        <v>43945</v>
+      </c>
+      <c r="G1503" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:7">
+      <c r="A1504" s="14">
+        <v>1502</v>
+      </c>
+      <c r="B1504" s="15">
+        <v>43948</v>
+      </c>
+      <c r="C1504" s="14">
+        <v>70</v>
+      </c>
+      <c r="D1504" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1504" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1504" s="16">
+        <v>43937</v>
+      </c>
+      <c r="G1504" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:7">
+      <c r="A1505" s="14">
+        <v>1503</v>
+      </c>
+      <c r="B1505" s="15">
+        <v>43948</v>
+      </c>
+      <c r="C1505" s="14">
+        <v>80</v>
+      </c>
+      <c r="D1505" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1505" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1505" s="16">
+        <v>43944</v>
+      </c>
+      <c r="G1505" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:7">
+      <c r="A1506" s="14">
+        <v>1504</v>
+      </c>
+      <c r="B1506" s="15">
+        <v>43948</v>
+      </c>
+      <c r="C1506" s="14">
+        <v>20</v>
+      </c>
+      <c r="D1506" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1506" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1506" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1506" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:7">
+      <c r="A1507" s="14">
+        <v>1505</v>
+      </c>
+      <c r="B1507" s="15">
+        <v>43948</v>
+      </c>
+      <c r="C1507" s="14">
+        <v>20</v>
+      </c>
+      <c r="D1507" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1507" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1507" s="16">
+        <v>43941</v>
+      </c>
+      <c r="G1507" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:7">
+      <c r="A1508" s="14">
+        <v>1506</v>
+      </c>
+      <c r="B1508" s="15">
+        <v>43948</v>
+      </c>
+      <c r="C1508" s="14">
+        <v>60</v>
+      </c>
+      <c r="D1508" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1508" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1508" s="16">
+        <v>43942</v>
+      </c>
+      <c r="G1508" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:7">
+      <c r="A1509" s="14">
+        <v>1507</v>
+      </c>
+      <c r="B1509" s="15">
+        <v>43948</v>
+      </c>
+      <c r="C1509" s="14">
+        <v>50</v>
+      </c>
+      <c r="D1509" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1509" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1509" s="16">
+        <v>43943</v>
+      </c>
+      <c r="G1509" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:7">
+      <c r="A1510" s="14">
+        <v>1508</v>
+      </c>
+      <c r="B1510" s="15">
+        <v>43948</v>
+      </c>
+      <c r="C1510" s="14">
+        <v>70</v>
+      </c>
+      <c r="D1510" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1510" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1510" s="16">
+        <v>43936</v>
+      </c>
+      <c r="G1510" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:7">
+      <c r="A1511" s="14">
+        <v>1509</v>
+      </c>
+      <c r="B1511" s="15">
+        <v>43948</v>
+      </c>
+      <c r="C1511" s="14">
+        <v>30</v>
+      </c>
+      <c r="D1511" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1511" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1511" s="16">
+        <v>43938</v>
+      </c>
+      <c r="G1511" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:7">
+      <c r="A1512" s="14">
+        <v>1510</v>
+      </c>
+      <c r="B1512" s="15">
+        <v>43948</v>
+      </c>
+      <c r="C1512" s="14">
+        <v>30</v>
+      </c>
+      <c r="D1512" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1512" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1512" s="16">
+        <v>43929</v>
+      </c>
+      <c r="G1512" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:7">
+      <c r="A1513" s="14">
+        <v>1511</v>
+      </c>
+      <c r="B1513" s="15">
+        <v>43948</v>
+      </c>
+      <c r="C1513" s="14">
+        <v>30</v>
+      </c>
+      <c r="D1513" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1513" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1513" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1513" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:7">
+      <c r="A1514" s="14">
+        <v>1512</v>
+      </c>
+      <c r="B1514" s="15">
+        <v>43948</v>
+      </c>
+      <c r="C1514" s="14">
+        <v>80</v>
+      </c>
+      <c r="D1514" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1514" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1514" s="16">
+        <v>43931</v>
+      </c>
+      <c r="G1514" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:7">
+      <c r="A1515" s="14">
+        <v>1513</v>
+      </c>
+      <c r="B1515" s="15">
+        <v>43948</v>
+      </c>
+      <c r="C1515" s="14">
+        <v>20</v>
+      </c>
+      <c r="D1515" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1515" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1515" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1515" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:7">
+      <c r="A1516" s="14">
+        <v>1514</v>
+      </c>
+      <c r="B1516" s="15">
+        <v>43948</v>
+      </c>
+      <c r="C1516" s="14">
+        <v>20</v>
+      </c>
+      <c r="D1516" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1516" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1516" s="16">
+        <v>43928</v>
+      </c>
+      <c r="G1516" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:7">
+      <c r="A1517" s="14">
+        <v>1515</v>
+      </c>
+      <c r="B1517" s="15">
+        <v>43948</v>
+      </c>
+      <c r="C1517" s="14">
+        <v>40</v>
+      </c>
+      <c r="D1517" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1517" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1517" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1517" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:7">
+      <c r="A1518" s="14">
+        <v>1516</v>
+      </c>
+      <c r="B1518" s="15">
+        <v>43948</v>
+      </c>
+      <c r="C1518" s="14">
+        <v>30</v>
+      </c>
+      <c r="D1518" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1518" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1518" s="16">
+        <v>43922</v>
+      </c>
+      <c r="G1518" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:7">
+      <c r="A1519" s="14">
+        <v>1517</v>
+      </c>
+      <c r="B1519" s="15">
+        <v>43948</v>
+      </c>
+      <c r="C1519" s="14">
+        <v>30</v>
+      </c>
+      <c r="D1519" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1519" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1519" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1519" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:7">
+      <c r="A1520" s="14">
+        <v>1518</v>
+      </c>
+      <c r="B1520" s="15">
+        <v>43948</v>
+      </c>
+      <c r="C1520" s="14">
+        <v>50</v>
+      </c>
+      <c r="D1520" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1520" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1520" s="16">
+        <v>43938</v>
+      </c>
+      <c r="G1520" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:7">
+      <c r="A1521" s="14">
+        <v>1519</v>
+      </c>
+      <c r="B1521" s="15">
+        <v>43948</v>
+      </c>
+      <c r="C1521" s="14">
+        <v>20</v>
+      </c>
+      <c r="D1521" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1521" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1521" s="16">
+        <v>43926</v>
+      </c>
+      <c r="G1521" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:7">
+      <c r="A1522" s="14">
+        <v>1520</v>
+      </c>
+      <c r="B1522" s="15">
+        <v>43948</v>
+      </c>
+      <c r="C1522" s="14">
+        <v>20</v>
+      </c>
+      <c r="D1522" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1522" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1522" s="16">
+        <v>43940</v>
+      </c>
+      <c r="G1522" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:7">
+      <c r="A1523" s="14">
+        <v>1521</v>
+      </c>
+      <c r="B1523" s="15">
+        <v>43948</v>
+      </c>
+      <c r="C1523" s="14">
+        <v>70</v>
+      </c>
+      <c r="D1523" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1523" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1523" s="16">
+        <v>43933</v>
+      </c>
+      <c r="G1523" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:7">
+      <c r="A1524" s="14">
+        <v>1522</v>
+      </c>
+      <c r="B1524" s="15">
+        <v>43949</v>
+      </c>
+      <c r="C1524" s="14">
+        <v>50</v>
+      </c>
+      <c r="D1524" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1524" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1524" s="16">
+        <v>43944</v>
+      </c>
+      <c r="G1524" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:7">
+      <c r="A1525" s="14">
+        <v>1523</v>
+      </c>
+      <c r="B1525" s="15">
+        <v>43949</v>
+      </c>
+      <c r="C1525" s="14">
+        <v>50</v>
+      </c>
+      <c r="D1525" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1525" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1525" s="16">
+        <v>43936</v>
+      </c>
+      <c r="G1525" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:7">
+      <c r="A1526" s="14">
+        <v>1524</v>
+      </c>
+      <c r="B1526" s="15">
+        <v>43949</v>
+      </c>
+      <c r="C1526" s="14">
+        <v>50</v>
+      </c>
+      <c r="D1526" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1526" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1526" s="16">
+        <v>43941</v>
+      </c>
+      <c r="G1526" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:7">
+      <c r="A1527" s="14">
+        <v>1525</v>
+      </c>
+      <c r="B1527" s="15">
+        <v>43949</v>
+      </c>
+      <c r="C1527" s="14">
+        <v>50</v>
+      </c>
+      <c r="D1527" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1527" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1527" s="16">
+        <v>43937</v>
+      </c>
+      <c r="G1527" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:7">
+      <c r="A1528" s="14">
+        <v>1526</v>
+      </c>
+      <c r="B1528" s="15">
+        <v>43949</v>
+      </c>
+      <c r="C1528" s="14">
+        <v>50</v>
+      </c>
+      <c r="D1528" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1528" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1528" s="16">
+        <v>43945</v>
+      </c>
+      <c r="G1528" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:7">
+      <c r="A1529" s="14">
+        <v>1527</v>
+      </c>
+      <c r="B1529" s="15">
+        <v>43949</v>
+      </c>
+      <c r="C1529" s="14">
+        <v>20</v>
+      </c>
+      <c r="D1529" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1529" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1529" s="16">
+        <v>43946</v>
+      </c>
+      <c r="G1529" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:7">
+      <c r="A1530" s="14">
+        <v>1528</v>
+      </c>
+      <c r="B1530" s="15">
+        <v>43949</v>
+      </c>
+      <c r="C1530" s="14">
+        <v>80</v>
+      </c>
+      <c r="D1530" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1530" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1530" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1530" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:7">
+      <c r="A1531" s="14">
+        <v>1529</v>
+      </c>
+      <c r="B1531" s="15">
+        <v>43949</v>
+      </c>
+      <c r="C1531" s="14">
+        <v>90</v>
+      </c>
+      <c r="D1531" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1531" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1531" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1531" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:7">
+      <c r="A1532" s="14">
+        <v>1530</v>
+      </c>
+      <c r="B1532" s="15">
+        <v>43949</v>
+      </c>
+      <c r="C1532" s="14">
+        <v>30</v>
+      </c>
+      <c r="D1532" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1532" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1532" s="16">
+        <v>43945</v>
+      </c>
+      <c r="G1532" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:7">
+      <c r="A1533" s="14">
+        <v>1531</v>
+      </c>
+      <c r="B1533" s="15">
+        <v>43949</v>
+      </c>
+      <c r="C1533" s="14">
+        <v>80</v>
+      </c>
+      <c r="D1533" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1533" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1533" s="16">
+        <v>43938</v>
+      </c>
+      <c r="G1533" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:7">
+      <c r="A1534" s="14">
+        <v>1532</v>
+      </c>
+      <c r="B1534" s="15">
+        <v>43949</v>
+      </c>
+      <c r="C1534" s="14">
+        <v>40</v>
+      </c>
+      <c r="D1534" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1534" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1534" s="16">
+        <v>43944</v>
+      </c>
+      <c r="G1534" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:7">
+      <c r="A1535" s="14">
+        <v>1533</v>
+      </c>
+      <c r="B1535" s="15">
+        <v>43949</v>
+      </c>
+      <c r="C1535" s="14">
+        <v>20</v>
+      </c>
+      <c r="D1535" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1535" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1535" s="16">
+        <v>43945</v>
+      </c>
+      <c r="G1535" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:7">
+      <c r="A1536" s="14">
+        <v>1534</v>
+      </c>
+      <c r="B1536" s="15">
+        <v>43949</v>
+      </c>
+      <c r="C1536" s="14">
+        <v>20</v>
+      </c>
+      <c r="D1536" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1536" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1536" s="16">
+        <v>43941</v>
+      </c>
+      <c r="G1536" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:7">
+      <c r="A1537" s="14">
+        <v>1535</v>
+      </c>
+      <c r="B1537" s="15">
+        <v>43949</v>
+      </c>
+      <c r="C1537" s="14">
+        <v>30</v>
+      </c>
+      <c r="D1537" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1537" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1537" s="16">
+        <v>43934</v>
+      </c>
+      <c r="G1537" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:7">
+      <c r="A1538" s="14">
+        <v>1536</v>
+      </c>
+      <c r="B1538" s="15">
+        <v>43949</v>
+      </c>
+      <c r="C1538" s="14">
+        <v>60</v>
+      </c>
+      <c r="D1538" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1538" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1538" s="16">
+        <v>43938</v>
+      </c>
+      <c r="G1538" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:7">
+      <c r="A1539" s="14">
+        <v>1537</v>
+      </c>
+      <c r="B1539" s="15">
+        <v>43949</v>
+      </c>
+      <c r="C1539" s="14">
+        <v>40</v>
+      </c>
+      <c r="D1539" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1539" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1539" s="16">
+        <v>43928</v>
+      </c>
+      <c r="G1539" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:7">
+      <c r="A1540" s="14">
+        <v>1538</v>
+      </c>
+      <c r="B1540" s="15">
+        <v>43949</v>
+      </c>
+      <c r="C1540" s="14">
+        <v>50</v>
+      </c>
+      <c r="D1540" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1540" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1540" s="16">
+        <v>43930</v>
+      </c>
+      <c r="G1540" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:7">
+      <c r="A1541" s="14">
+        <v>1539</v>
+      </c>
+      <c r="B1541" s="15">
+        <v>43949</v>
+      </c>
+      <c r="C1541" s="14">
+        <v>40</v>
+      </c>
+      <c r="D1541" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1541" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1541" s="16">
+        <v>43941</v>
+      </c>
+      <c r="G1541" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:7">
+      <c r="A1542" s="14">
+        <v>1540</v>
+      </c>
+      <c r="B1542" s="15">
+        <v>43949</v>
+      </c>
+      <c r="C1542" s="14">
+        <v>20</v>
+      </c>
+      <c r="D1542" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1542" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1542" s="16">
+        <v>43945</v>
+      </c>
+      <c r="G1542" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:7">
+      <c r="A1543" s="14">
+        <v>1541</v>
+      </c>
+      <c r="B1543" s="15">
+        <v>43949</v>
+      </c>
+      <c r="C1543" s="14">
+        <v>20</v>
+      </c>
+      <c r="D1543" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1543" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1543" s="16">
+        <v>43943</v>
+      </c>
+      <c r="G1543" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:7">
+      <c r="A1544" s="14">
+        <v>1542</v>
+      </c>
+      <c r="B1544" s="15">
+        <v>43949</v>
+      </c>
+      <c r="C1544" s="14">
+        <v>40</v>
+      </c>
+      <c r="D1544" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1544" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1544" s="16">
+        <v>43935</v>
+      </c>
+      <c r="G1544" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:7">
+      <c r="A1545" s="14">
+        <v>1543</v>
+      </c>
+      <c r="B1545" s="15">
+        <v>43949</v>
+      </c>
+      <c r="C1545" s="14">
+        <v>10</v>
+      </c>
+      <c r="D1545" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1545" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1545" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1545" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:7">
+      <c r="A1546" s="14">
+        <v>1544</v>
+      </c>
+      <c r="B1546" s="15">
+        <v>43949</v>
+      </c>
+      <c r="C1546" s="14">
+        <v>70</v>
+      </c>
+      <c r="D1546" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1546" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1546" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1546" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:7">
+      <c r="A1547" s="14">
+        <v>1545</v>
+      </c>
+      <c r="B1547" s="15">
+        <v>43949</v>
+      </c>
+      <c r="C1547" s="14">
+        <v>40</v>
+      </c>
+      <c r="D1547" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1547" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1547" s="16">
+        <v>43937</v>
+      </c>
+      <c r="G1547" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:7">
+      <c r="A1548" s="14">
+        <v>1546</v>
+      </c>
+      <c r="B1548" s="15">
+        <v>43949</v>
+      </c>
+      <c r="C1548" s="14">
+        <v>40</v>
+      </c>
+      <c r="D1548" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1548" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1548" s="16">
+        <v>43933</v>
+      </c>
+      <c r="G1548" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:7">
+      <c r="A1549" s="14">
+        <v>1547</v>
+      </c>
+      <c r="B1549" s="15">
+        <v>43949</v>
+      </c>
+      <c r="C1549" s="14">
+        <v>30</v>
+      </c>
+      <c r="D1549" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1549" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1549" s="16">
+        <v>43946</v>
+      </c>
+      <c r="G1549" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:7">
+      <c r="A1550" s="14">
+        <v>1548</v>
+      </c>
+      <c r="B1550" s="15">
+        <v>43949</v>
+      </c>
+      <c r="C1550" s="14">
+        <v>70</v>
+      </c>
+      <c r="D1550" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1550" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1550" s="16">
+        <v>43944</v>
+      </c>
+      <c r="G1550" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:7">
+      <c r="A1551" s="14">
+        <v>1549</v>
+      </c>
+      <c r="B1551" s="15">
+        <v>43949</v>
+      </c>
+      <c r="C1551" s="14">
+        <v>20</v>
+      </c>
+      <c r="D1551" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1551" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1551" s="16">
+        <v>43934</v>
+      </c>
+      <c r="G1551" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:7">
+      <c r="A1552" s="14">
+        <v>1550</v>
+      </c>
+      <c r="B1552" s="15">
+        <v>43949</v>
+      </c>
+      <c r="C1552" s="14">
+        <v>50</v>
+      </c>
+      <c r="D1552" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1552" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1552" s="16">
+        <v>43934</v>
+      </c>
+      <c r="G1552" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:7">
+      <c r="A1553" s="14">
+        <v>1551</v>
+      </c>
+      <c r="B1553" s="15">
+        <v>43949</v>
+      </c>
+      <c r="C1553" s="14">
+        <v>30</v>
+      </c>
+      <c r="D1553" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1553" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1553" s="16">
+        <v>43944</v>
+      </c>
+      <c r="G1553" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:7">
+      <c r="A1554" s="14">
+        <v>1552</v>
+      </c>
+      <c r="B1554" s="15">
+        <v>43949</v>
+      </c>
+      <c r="C1554" s="14">
+        <v>80</v>
+      </c>
+      <c r="D1554" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1554" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1554" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1554" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:7">
+      <c r="A1555" s="14">
+        <v>1553</v>
+      </c>
+      <c r="B1555" s="15">
+        <v>43949</v>
+      </c>
+      <c r="C1555" s="14">
+        <v>70</v>
+      </c>
+      <c r="D1555" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1555" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1555" s="16">
+        <v>43933</v>
+      </c>
+      <c r="G1555" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:7">
+      <c r="A1556" s="14">
+        <v>1554</v>
+      </c>
+      <c r="B1556" s="15">
+        <v>43950</v>
+      </c>
+      <c r="C1556" s="14">
+        <v>70</v>
+      </c>
+      <c r="D1556" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1556" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1556" s="16">
+        <v>43948</v>
+      </c>
+      <c r="G1556" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:7">
+      <c r="A1557" s="14">
+        <v>1555</v>
+      </c>
+      <c r="B1557" s="15">
+        <v>43950</v>
+      </c>
+      <c r="C1557" s="14">
+        <v>40</v>
+      </c>
+      <c r="D1557" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1557" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1557" s="16">
+        <v>43945</v>
+      </c>
+      <c r="G1557" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:7">
+      <c r="A1558" s="14">
+        <v>1556</v>
+      </c>
+      <c r="B1558" s="15">
+        <v>43950</v>
+      </c>
+      <c r="C1558" s="14">
+        <v>30</v>
+      </c>
+      <c r="D1558" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1558" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1558" s="16">
+        <v>43945</v>
+      </c>
+      <c r="G1558" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:7">
+      <c r="A1559" s="14">
+        <v>1557</v>
+      </c>
+      <c r="B1559" s="15">
+        <v>43950</v>
+      </c>
+      <c r="C1559" s="14">
+        <v>60</v>
+      </c>
+      <c r="D1559" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1559" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1559" s="16">
+        <v>43941</v>
+      </c>
+      <c r="G1559" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:7">
+      <c r="A1560" s="14">
+        <v>1558</v>
+      </c>
+      <c r="B1560" s="15">
+        <v>43950</v>
+      </c>
+      <c r="C1560" s="14">
+        <v>80</v>
+      </c>
+      <c r="D1560" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1560" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1560" s="16">
+        <v>43931</v>
+      </c>
+      <c r="G1560" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:7">
+      <c r="A1561" s="14">
+        <v>1559</v>
+      </c>
+      <c r="B1561" s="15">
+        <v>43950</v>
+      </c>
+      <c r="C1561" s="14">
+        <v>70</v>
+      </c>
+      <c r="D1561" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1561" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1561" s="16">
+        <v>43938</v>
+      </c>
+      <c r="G1561" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:7">
+      <c r="A1562" s="14">
+        <v>1560</v>
+      </c>
+      <c r="B1562" s="15">
+        <v>43950</v>
+      </c>
+      <c r="C1562" s="14">
+        <v>70</v>
+      </c>
+      <c r="D1562" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1562" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1562" s="16">
+        <v>43945</v>
+      </c>
+      <c r="G1562" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:7">
+      <c r="A1563" s="14">
+        <v>1561</v>
+      </c>
+      <c r="B1563" s="15">
+        <v>43950</v>
+      </c>
+      <c r="C1563" s="14">
+        <v>60</v>
+      </c>
+      <c r="D1563" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1563" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1563" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1563" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:7">
+      <c r="A1564" s="14">
+        <v>1562</v>
+      </c>
+      <c r="B1564" s="15">
+        <v>43950</v>
+      </c>
+      <c r="C1564" s="14">
+        <v>70</v>
+      </c>
+      <c r="D1564" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1564" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1564" s="16">
+        <v>43942</v>
+      </c>
+      <c r="G1564" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:7">
+      <c r="A1565" s="14">
+        <v>1563</v>
+      </c>
+      <c r="B1565" s="15">
+        <v>43950</v>
+      </c>
+      <c r="C1565" s="14">
+        <v>70</v>
+      </c>
+      <c r="D1565" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1565" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1565" s="16">
+        <v>43929</v>
+      </c>
+      <c r="G1565" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:7">
+      <c r="A1566" s="14">
+        <v>1564</v>
+      </c>
+      <c r="B1566" s="15">
+        <v>43950</v>
+      </c>
+      <c r="C1566" s="14">
+        <v>20</v>
+      </c>
+      <c r="D1566" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1566" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1566" s="16">
+        <v>43947</v>
+      </c>
+      <c r="G1566" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:7">
+      <c r="A1567" s="14">
+        <v>1565</v>
+      </c>
+      <c r="B1567" s="15">
+        <v>43950</v>
+      </c>
+      <c r="C1567" s="14">
+        <v>20</v>
+      </c>
+      <c r="D1567" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1567" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1567" s="16">
+        <v>43945</v>
+      </c>
+      <c r="G1567" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:7">
+      <c r="A1568" s="14">
+        <v>1566</v>
+      </c>
+      <c r="B1568" s="15">
+        <v>43950</v>
+      </c>
+      <c r="C1568" s="14">
+        <v>30</v>
+      </c>
+      <c r="D1568" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1568" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1568" s="16">
+        <v>43947</v>
+      </c>
+      <c r="G1568" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:7">
+      <c r="A1569" s="14">
+        <v>1567</v>
+      </c>
+      <c r="B1569" s="15">
+        <v>43950</v>
+      </c>
+      <c r="C1569" s="14">
+        <v>30</v>
+      </c>
+      <c r="D1569" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1569" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1569" s="16">
+        <v>43947</v>
+      </c>
+      <c r="G1569" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:7">
+      <c r="A1570" s="14">
+        <v>1568</v>
+      </c>
+      <c r="B1570" s="15">
+        <v>43950</v>
+      </c>
+      <c r="C1570" s="14">
+        <v>20</v>
+      </c>
+      <c r="D1570" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1570" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1570" s="16">
+        <v>43946</v>
+      </c>
+      <c r="G1570" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:7">
+      <c r="A1571" s="14">
+        <v>1569</v>
+      </c>
+      <c r="B1571" s="15">
+        <v>43950</v>
+      </c>
+      <c r="C1571" s="14">
+        <v>50</v>
+      </c>
+      <c r="D1571" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1571" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1571" s="16">
+        <v>43941</v>
+      </c>
+      <c r="G1571" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:7">
+      <c r="A1572" s="14">
+        <v>1570</v>
+      </c>
+      <c r="B1572" s="15">
+        <v>43950</v>
+      </c>
+      <c r="C1572" s="14">
+        <v>40</v>
+      </c>
+      <c r="D1572" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1572" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1572" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1572" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:7">
+      <c r="A1573" s="14">
+        <v>1571</v>
+      </c>
+      <c r="B1573" s="15">
+        <v>43950</v>
+      </c>
+      <c r="C1573" s="14">
+        <v>80</v>
+      </c>
+      <c r="D1573" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1573" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1573" s="16">
+        <v>43946</v>
+      </c>
+      <c r="G1573" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:7">
+      <c r="A1574" s="14">
+        <v>1572</v>
+      </c>
+      <c r="B1574" s="15">
+        <v>43950</v>
+      </c>
+      <c r="C1574" s="14">
+        <v>10</v>
+      </c>
+      <c r="D1574" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1574" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1574" s="16">
+        <v>43941</v>
+      </c>
+      <c r="G1574" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:7">
+      <c r="A1575" s="14">
+        <v>1573</v>
+      </c>
+      <c r="B1575" s="15">
+        <v>43950</v>
+      </c>
+      <c r="C1575" s="14">
+        <v>30</v>
+      </c>
+      <c r="D1575" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1575" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1575" s="16">
+        <v>43935</v>
+      </c>
+      <c r="G1575" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:7">
+      <c r="A1576" s="14">
+        <v>1574</v>
+      </c>
+      <c r="B1576" s="15">
+        <v>43950</v>
+      </c>
+      <c r="C1576" s="14">
+        <v>40</v>
+      </c>
+      <c r="D1576" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1576" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1576" s="16">
+        <v>43945</v>
+      </c>
+      <c r="G1576" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:7">
+      <c r="A1577" s="14">
+        <v>1575</v>
+      </c>
+      <c r="B1577" s="15">
+        <v>43950</v>
+      </c>
+      <c r="C1577" s="14">
+        <v>80</v>
+      </c>
+      <c r="D1577" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1577" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1577" s="16">
+        <v>43937</v>
+      </c>
+      <c r="G1577" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:7">
+      <c r="A1578" s="14">
+        <v>1576</v>
+      </c>
+      <c r="B1578" s="15">
+        <v>43950</v>
+      </c>
+      <c r="C1578" s="14">
+        <v>30</v>
+      </c>
+      <c r="D1578" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1578" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1578" s="16">
+        <v>43939</v>
+      </c>
+      <c r="G1578" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:7">
+      <c r="A1579" s="14">
+        <v>1577</v>
+      </c>
+      <c r="B1579" s="15">
+        <v>43950</v>
+      </c>
+      <c r="C1579" s="14">
+        <v>80</v>
+      </c>
+      <c r="D1579" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1579" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1579" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1579" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:7">
+      <c r="A1580" s="14">
+        <v>1578</v>
+      </c>
+      <c r="B1580" s="15">
+        <v>43950</v>
+      </c>
+      <c r="C1580" s="14">
+        <v>60</v>
+      </c>
+      <c r="D1580" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1580" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1580" s="16">
+        <v>43938</v>
+      </c>
+      <c r="G1580" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:7">
+      <c r="A1581" s="14">
+        <v>1579</v>
+      </c>
+      <c r="B1581" s="15">
+        <v>43950</v>
+      </c>
+      <c r="C1581" s="14">
+        <v>40</v>
+      </c>
+      <c r="D1581" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1581" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1581" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1581" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:7">
+      <c r="A1582" s="14">
+        <v>1580</v>
+      </c>
+      <c r="B1582" s="15">
+        <v>43950</v>
+      </c>
+      <c r="C1582" s="14">
+        <v>70</v>
+      </c>
+      <c r="D1582" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1582" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1582" s="16">
+        <v>43945</v>
+      </c>
+      <c r="G1582" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:7">
+      <c r="A1583" s="14">
+        <v>1581</v>
+      </c>
+      <c r="B1583" s="15">
+        <v>43950</v>
+      </c>
+      <c r="C1583" s="14">
+        <v>20</v>
+      </c>
+      <c r="D1583" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1583" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1583" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1583" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1584" spans="1:7">
+      <c r="A1584" s="14">
+        <v>1582</v>
+      </c>
+      <c r="B1584" s="15">
+        <v>43950</v>
+      </c>
+      <c r="C1584" s="14">
+        <v>20</v>
+      </c>
+      <c r="D1584" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1584" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1584" s="16">
+        <v>43932</v>
+      </c>
+      <c r="G1584" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:7">
+      <c r="A1585" s="14">
+        <v>1583</v>
+      </c>
+      <c r="B1585" s="15">
+        <v>43950</v>
+      </c>
+      <c r="C1585" s="14">
+        <v>10</v>
+      </c>
+      <c r="D1585" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1585" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1585" s="16">
+        <v>43944</v>
+      </c>
+      <c r="G1585" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:7">
+      <c r="A1586" s="14">
+        <v>1584</v>
+      </c>
+      <c r="B1586" s="15">
+        <v>43950</v>
+      </c>
+      <c r="C1586" s="14">
+        <v>30</v>
+      </c>
+      <c r="D1586" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1586" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1586" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1586" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:7">
+      <c r="A1587" s="14">
+        <v>1585</v>
+      </c>
+      <c r="B1587" s="15">
+        <v>43950</v>
+      </c>
+      <c r="C1587" s="14">
+        <v>30</v>
+      </c>
+      <c r="D1587" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1587" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1587" s="16">
+        <v>43941</v>
+      </c>
+      <c r="G1587" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:7">
+      <c r="A1588" s="14">
+        <v>1586</v>
+      </c>
+      <c r="B1588" s="15">
+        <v>43950</v>
+      </c>
+      <c r="C1588" s="14">
+        <v>40</v>
+      </c>
+      <c r="D1588" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1588" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1588" s="16">
+        <v>43943</v>
+      </c>
+      <c r="G1588" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:7">
+      <c r="A1589" s="14">
+        <v>1587</v>
+      </c>
+      <c r="B1589" s="15">
+        <v>43950</v>
+      </c>
+      <c r="C1589" s="14">
+        <v>40</v>
+      </c>
+      <c r="D1589" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1589" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1589" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1589" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:7">
+      <c r="A1590" s="14">
+        <v>1588</v>
+      </c>
+      <c r="B1590" s="15">
+        <v>43950</v>
+      </c>
+      <c r="C1590" s="14">
+        <v>50</v>
+      </c>
+      <c r="D1590" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1590" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1590" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1590" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:7">
+      <c r="A1591" s="14">
+        <v>1589</v>
+      </c>
+      <c r="B1591" s="15">
+        <v>43950</v>
+      </c>
+      <c r="C1591" s="14">
+        <v>20</v>
+      </c>
+      <c r="D1591" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1591" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1591" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1591" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:7">
+      <c r="A1592" s="14">
+        <v>1590</v>
+      </c>
+      <c r="B1592" s="15">
+        <v>43950</v>
+      </c>
+      <c r="C1592" s="14">
+        <v>20</v>
+      </c>
+      <c r="D1592" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1592" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1592" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1592" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:7">
+      <c r="A1593" s="14">
+        <v>1591</v>
+      </c>
+      <c r="B1593" s="15">
+        <v>43950</v>
+      </c>
+      <c r="C1593" s="14">
+        <v>40</v>
+      </c>
+      <c r="D1593" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1593" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1593" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1593" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:7">
+      <c r="A1594" s="14">
+        <v>1592</v>
+      </c>
+      <c r="B1594" s="15">
+        <v>43950</v>
+      </c>
+      <c r="C1594" s="14">
+        <v>30</v>
+      </c>
+      <c r="D1594" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1594" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1594" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1594" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:7">
+      <c r="A1595" s="14">
+        <v>1593</v>
+      </c>
+      <c r="B1595" s="15">
+        <v>43950</v>
+      </c>
+      <c r="C1595" s="14">
+        <v>40</v>
+      </c>
+      <c r="D1595" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1595" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1595" s="16">
+        <v>43939</v>
+      </c>
+      <c r="G1595" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:7">
+      <c r="A1596" s="14">
+        <v>1594</v>
+      </c>
+      <c r="B1596" s="15">
+        <v>43950</v>
+      </c>
+      <c r="C1596" s="14">
+        <v>20</v>
+      </c>
+      <c r="D1596" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1596" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1596" s="16">
+        <v>43946</v>
+      </c>
+      <c r="G1596" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:7">
+      <c r="A1597" s="14">
+        <v>1595</v>
+      </c>
+      <c r="B1597" s="15">
+        <v>43950</v>
+      </c>
+      <c r="C1597" s="14">
+        <v>60</v>
+      </c>
+      <c r="D1597" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1597" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1597" s="16">
+        <v>43937</v>
+      </c>
+      <c r="G1597" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:7">
+      <c r="A1598" s="14">
+        <v>1596</v>
+      </c>
+      <c r="B1598" s="15">
+        <v>43950</v>
+      </c>
+      <c r="C1598" s="14">
+        <v>60</v>
+      </c>
+      <c r="D1598" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1598" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1598" s="16">
+        <v>43936</v>
+      </c>
+      <c r="G1598" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:7">
+      <c r="A1599" s="14">
+        <v>1597</v>
+      </c>
+      <c r="B1599" s="15">
+        <v>43950</v>
+      </c>
+      <c r="C1599" s="14">
+        <v>80</v>
+      </c>
+      <c r="D1599" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1599" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1599" s="16">
+        <v>43944</v>
+      </c>
+      <c r="G1599" s="14" t="s">
         <v>11</v>
       </c>
     </row>
